--- a/LR3/table_1_76.xlsx
+++ b/LR3/table_1_76.xlsx
@@ -2342,6 +2342,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>

--- a/LR3/table_1_76.xlsx
+++ b/LR3/table_1_76.xlsx
@@ -7,6 +7,11 @@
   </sheets>
   <definedNames/>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjNltihDHseW8U2SgOnEmIQ8PuWog=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -16,13 +21,13 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф, руб/кв.м.</t>
+    <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
     <t>Сумма, руб.</t>
@@ -34,10 +39,10 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка, дней.</t>
+    <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Пени за 1 день, руб</t>
+    <t>Пени за 1 день, руб.</t>
   </si>
   <si>
     <t>Штраф, руб.</t>
@@ -109,7 +114,7 @@
     <t>Редькин</t>
   </si>
   <si>
-    <t>Сафулин</t>
+    <t>Сайфулин</t>
   </si>
   <si>
     <t>Сеняшина</t>
@@ -121,7 +126,7 @@
     <t>Табаков</t>
   </si>
   <si>
-    <t>Торошина</t>
+    <t>Торощина</t>
   </si>
   <si>
     <t>Федько</t>
@@ -157,13 +162,13 @@
     <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Средняя площаль, кв.м.</t>
+    <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -171,19 +176,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -210,17 +220,23 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -251,40 +267,40 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,21 +447,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="33.5"/>
-    <col customWidth="1" min="3" max="3" width="13.63"/>
-    <col customWidth="1" min="4" max="4" width="14.75"/>
-    <col customWidth="1" min="8" max="8" width="15.38"/>
-    <col customWidth="1" min="9" max="9" width="18.13"/>
+    <col customWidth="1" min="1" max="1" width="12.43"/>
+    <col customWidth="1" min="2" max="2" width="37.14"/>
+    <col customWidth="1" min="3" max="3" width="16.86"/>
+    <col customWidth="1" min="4" max="4" width="16.29"/>
+    <col customWidth="1" min="5" max="5" width="16.57"/>
+    <col customWidth="1" min="6" max="6" width="17.71"/>
+    <col customWidth="1" min="7" max="7" width="18.43"/>
+    <col customWidth="1" min="8" max="8" width="16.57"/>
+    <col customWidth="1" min="9" max="9" width="20.43"/>
+    <col customWidth="1" min="10" max="10" width="12.71"/>
+    <col customWidth="1" min="11" max="11" width="15.29"/>
+    <col customWidth="1" min="12" max="31" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1">
         <v>76.0</v>
       </c>
@@ -465,39 +488,53 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+    </row>
+    <row r="2" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="L2" s="2"/>
@@ -506,18 +543,32 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="1">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1">
+      <c r="A3" s="2">
         <v>1.0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>70.0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="5">
         <f>A1*1.1</f>
         <v>83.6</v>
       </c>
@@ -525,17 +576,17 @@
         <f t="shared" ref="E3:E38" si="1">C3*D3</f>
         <v>5852</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>44813.0</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <v>44805.0</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H38" si="2">IF(F3&gt;G3,0,G3-F3)</f>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H38" si="2">IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>10.0</v>
       </c>
       <c r="J3" s="2">
@@ -552,20 +603,34 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
-    </row>
-    <row r="4">
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A38" si="5">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ref="C4:C38" si="6">C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <f t="shared" ref="D4:D34" si="7">D3</f>
         <v>83.6</v>
       </c>
@@ -573,15 +638,15 @@
         <f t="shared" si="1"/>
         <v>5810.2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <f t="shared" ref="F4:F38" si="8">F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="3">
         <f t="shared" ref="G4:G38" si="9">G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -603,20 +668,34 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
-    </row>
-    <row r="5">
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="2">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -624,15 +703,15 @@
         <f t="shared" si="1"/>
         <v>5768.4</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="3">
         <f t="shared" si="9"/>
         <v>44807</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -654,20 +733,34 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-    </row>
-    <row r="6">
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="2">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -675,15 +768,15 @@
         <f t="shared" si="1"/>
         <v>5726.6</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="3">
         <f t="shared" si="9"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -705,20 +798,34 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
-    </row>
-    <row r="7">
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -726,15 +833,15 @@
         <f t="shared" si="1"/>
         <v>5684.8</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="3">
         <f t="shared" si="9"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -756,20 +863,34 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-    </row>
-    <row r="8">
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -777,15 +898,15 @@
         <f t="shared" si="1"/>
         <v>5643</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="3">
         <f t="shared" si="9"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -807,20 +928,34 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9">
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="2">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -828,15 +963,15 @@
         <f t="shared" si="1"/>
         <v>5601.2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="3">
         <f t="shared" si="9"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -858,20 +993,34 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10">
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="2">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -879,15 +1028,15 @@
         <f t="shared" si="1"/>
         <v>5559.4</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="3">
         <f t="shared" si="9"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -909,20 +1058,34 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-    </row>
-    <row r="11">
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -930,15 +1093,15 @@
         <f t="shared" si="1"/>
         <v>5517.6</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="3">
         <f t="shared" si="9"/>
         <v>44813</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -960,20 +1123,34 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-    </row>
-    <row r="12">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="2">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -981,15 +1158,15 @@
         <f t="shared" si="1"/>
         <v>5475.8</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="3">
         <f t="shared" si="9"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1011,20 +1188,34 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-    </row>
-    <row r="13">
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+    </row>
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="2">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1032,15 +1223,15 @@
         <f t="shared" si="1"/>
         <v>5434</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="3">
         <f t="shared" si="9"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -1062,20 +1253,34 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-    </row>
-    <row r="14">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1083,15 +1288,15 @@
         <f t="shared" si="1"/>
         <v>5392.2</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <f t="shared" si="9"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -1113,20 +1318,34 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-    </row>
-    <row r="15">
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+    </row>
+    <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="2">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1134,15 +1353,15 @@
         <f t="shared" si="1"/>
         <v>5350.4</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="3">
         <f t="shared" si="9"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -1164,20 +1383,34 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-    </row>
-    <row r="16">
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1185,15 +1418,15 @@
         <f t="shared" si="1"/>
         <v>5308.6</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="3">
         <f t="shared" si="9"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1215,20 +1448,34 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-    </row>
-    <row r="17">
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+    </row>
+    <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="2">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1236,15 +1483,15 @@
         <f t="shared" si="1"/>
         <v>5266.8</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <f t="shared" si="9"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H17" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -1266,20 +1513,34 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-    </row>
-    <row r="18">
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+    </row>
+    <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1287,15 +1548,15 @@
         <f t="shared" si="1"/>
         <v>5225</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="3">
         <f t="shared" si="9"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -1317,20 +1578,34 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-    </row>
-    <row r="19">
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+    </row>
+    <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="2">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1338,15 +1613,15 @@
         <f t="shared" si="1"/>
         <v>5183.2</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <f t="shared" si="9"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H19" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -1368,20 +1643,34 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-    </row>
-    <row r="20">
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="2">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1389,15 +1678,15 @@
         <f t="shared" si="1"/>
         <v>5141.4</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="3">
         <f t="shared" si="9"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -1419,20 +1708,34 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-    </row>
-    <row r="21">
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="2">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1440,15 +1743,15 @@
         <f t="shared" si="1"/>
         <v>5099.6</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="3">
         <f t="shared" si="9"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1470,20 +1773,34 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-    </row>
-    <row r="22">
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="2">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1491,15 +1808,15 @@
         <f t="shared" si="1"/>
         <v>5057.8</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="3">
         <f t="shared" si="9"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -1521,20 +1838,34 @@
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-    </row>
-    <row r="23">
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="2">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1542,15 +1873,15 @@
         <f t="shared" si="1"/>
         <v>5016</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="3">
         <f t="shared" si="9"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H23" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -1572,20 +1903,34 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-    </row>
-    <row r="24">
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="2">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1593,15 +1938,15 @@
         <f t="shared" si="1"/>
         <v>4974.2</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="3">
         <f t="shared" si="9"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H24" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -1623,20 +1968,34 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-    </row>
-    <row r="25">
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="2">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1644,15 +2003,15 @@
         <f t="shared" si="1"/>
         <v>4932.4</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="3">
         <f t="shared" si="9"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H25" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
@@ -1674,20 +2033,34 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-    </row>
-    <row r="26">
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="2">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1695,15 +2068,15 @@
         <f t="shared" si="1"/>
         <v>4890.6</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
         <f t="shared" si="9"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -1725,20 +2098,34 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-    </row>
-    <row r="27">
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+    </row>
+    <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="2">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1746,15 +2133,15 @@
         <f t="shared" si="1"/>
         <v>4848.8</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="3">
         <f t="shared" si="9"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -1776,20 +2163,34 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-    </row>
-    <row r="28">
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="2">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1797,15 +2198,15 @@
         <f t="shared" si="1"/>
         <v>4807</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="3">
         <f t="shared" si="9"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -1827,20 +2228,34 @@
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-    </row>
-    <row r="29">
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="2">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1848,15 +2263,15 @@
         <f t="shared" si="1"/>
         <v>4765.2</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="3">
         <f t="shared" si="9"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
@@ -1878,20 +2293,34 @@
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-    </row>
-    <row r="30">
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+    </row>
+    <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="2">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="2">
+      <c r="D30" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1899,15 +2328,15 @@
         <f t="shared" si="1"/>
         <v>4723.4</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="3">
         <f t="shared" si="9"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
@@ -1929,20 +2358,34 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-    </row>
-    <row r="31">
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+    </row>
+    <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="2">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -1950,15 +2393,15 @@
         <f t="shared" si="1"/>
         <v>4681.6</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="3">
         <f t="shared" si="9"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -1980,20 +2423,34 @@
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-    </row>
-    <row r="32">
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+    </row>
+    <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="2">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D32" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -2001,15 +2458,15 @@
         <f t="shared" si="1"/>
         <v>4639.8</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="3">
         <f t="shared" si="9"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -2031,20 +2488,34 @@
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-    </row>
-    <row r="33">
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+    </row>
+    <row r="33" ht="14.25" customHeight="1">
       <c r="A33" s="2">
         <f t="shared" si="5"/>
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -2052,15 +2523,15 @@
         <f t="shared" si="1"/>
         <v>4598</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="3">
         <f t="shared" si="9"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
@@ -2082,20 +2553,34 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-    </row>
-    <row r="34">
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="2">
         <f t="shared" si="5"/>
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="5">
         <f t="shared" si="7"/>
         <v>83.6</v>
       </c>
@@ -2103,15 +2588,15 @@
         <f t="shared" si="1"/>
         <v>4556.2</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="3">
         <f t="shared" si="9"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
@@ -2133,36 +2618,50 @@
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-    </row>
-    <row r="35">
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+    </row>
+    <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="2">
         <f t="shared" si="5"/>
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="2">
-        <f>(A1*1.1)/2</f>
+      <c r="D35" s="5">
+        <f>D3/2</f>
         <v>41.8</v>
       </c>
       <c r="E35" s="2">
         <f t="shared" si="1"/>
         <v>2257.2</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="3">
         <f t="shared" si="9"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
@@ -2184,36 +2683,50 @@
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-    </row>
-    <row r="36">
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+    </row>
+    <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="2">
         <f t="shared" si="5"/>
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="2">
-        <f t="shared" ref="D36:D38" si="11">D35</f>
+      <c r="D36" s="5">
+        <f>D3/2</f>
         <v>41.8</v>
       </c>
       <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>2236.3</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="3">
         <f t="shared" si="9"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="2">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
@@ -2235,36 +2748,50 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-    </row>
-    <row r="37">
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="2">
         <f t="shared" si="5"/>
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="2">
-        <f t="shared" si="11"/>
+      <c r="D37" s="5">
+        <f>D3/2</f>
         <v>41.8</v>
       </c>
       <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>2215.4</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="3">
         <f t="shared" si="9"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="2">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -2286,36 +2813,50 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-    </row>
-    <row r="38">
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="2">
         <f t="shared" si="5"/>
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="2">
-        <f t="shared" si="11"/>
+      <c r="D38" s="5">
+        <f>D3/2</f>
         <v>41.8</v>
       </c>
       <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>2194.5</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="3">
         <f t="shared" si="8"/>
         <v>44813</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="3">
         <f t="shared" si="9"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H38" s="2">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
@@ -2337,8 +2878,22 @@
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-    </row>
-    <row r="39">
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2356,15 +2911,29 @@
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-    </row>
-    <row r="40">
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="2"/>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="6">
-        <f>SUM(K3:K38)</f>
-        <v>179214.6</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>179214</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2380,14 +2949,28 @@
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-    </row>
-    <row r="41">
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="2"/>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="2">
-        <f>SUM(C3:C38)/36</f>
+      <c r="C41" s="7">
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
       <c r="D41" s="2"/>
@@ -2404,13 +2987,27 @@
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-    </row>
-    <row r="42">
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="2"/>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="7">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
@@ -2428,13 +3025,27 @@
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-    </row>
-    <row r="43">
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="2"/>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="7">
         <f>MAX(K3:K38)</f>
         <v>5852</v>
       </c>
@@ -2452,8 +3063,22 @@
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-    </row>
-    <row r="44">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2471,8 +3096,22 @@
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-    </row>
-    <row r="45">
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2490,8 +3129,22 @@
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-    </row>
-    <row r="46">
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2509,8 +3162,22 @@
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-    </row>
-    <row r="47">
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+    </row>
+    <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2528,8 +3195,22 @@
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-    </row>
-    <row r="48">
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2547,8 +3228,22 @@
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-    </row>
-    <row r="49">
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2566,8 +3261,22 @@
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-    </row>
-    <row r="50">
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2585,8 +3294,22 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
-    </row>
-    <row r="51">
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2604,8 +3327,22 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-    </row>
-    <row r="52">
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+    </row>
+    <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2623,8 +3360,22 @@
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-    </row>
-    <row r="53">
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+    </row>
+    <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2642,8 +3393,22 @@
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-    </row>
-    <row r="54">
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+    </row>
+    <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2661,8 +3426,22 @@
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-    </row>
-    <row r="55">
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+    </row>
+    <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2680,8 +3459,22 @@
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="2"/>
-    </row>
-    <row r="56">
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+    </row>
+    <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2699,8 +3492,22 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-    </row>
-    <row r="57">
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+    </row>
+    <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2718,8 +3525,4008 @@
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
-    </row>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+    </row>
+    <row r="58" ht="14.25" customHeight="1">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+    </row>
+    <row r="59" ht="14.25" customHeight="1">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+    </row>
+    <row r="60" ht="14.25" customHeight="1">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+    </row>
+    <row r="61" ht="14.25" customHeight="1">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+    </row>
+    <row r="62" ht="14.25" customHeight="1">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+    </row>
+    <row r="63" ht="14.25" customHeight="1">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+    </row>
+    <row r="64" ht="14.25" customHeight="1">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+    </row>
+    <row r="65" ht="14.25" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+    </row>
+    <row r="66" ht="14.25" customHeight="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+    </row>
+    <row r="67" ht="14.25" customHeight="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+    </row>
+    <row r="68" ht="14.25" customHeight="1">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+    </row>
+    <row r="69" ht="14.25" customHeight="1">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+    </row>
+    <row r="70" ht="14.25" customHeight="1">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+    </row>
+    <row r="71" ht="14.25" customHeight="1">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+    </row>
+    <row r="72" ht="14.25" customHeight="1">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+    </row>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+    </row>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
+    </row>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
+    </row>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+    </row>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+    </row>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+    </row>
+    <row r="85" ht="14.25" customHeight="1">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+    </row>
+    <row r="86" ht="14.25" customHeight="1">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
+    </row>
+    <row r="87" ht="14.25" customHeight="1">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
+    </row>
+    <row r="88" ht="14.25" customHeight="1">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
+    </row>
+    <row r="89" ht="14.25" customHeight="1">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
+    </row>
+    <row r="90" ht="14.25" customHeight="1">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
+    </row>
+    <row r="91" ht="14.25" customHeight="1">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
+    </row>
+    <row r="92" ht="14.25" customHeight="1">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
+      <c r="AD92" s="2"/>
+      <c r="AE92" s="2"/>
+    </row>
+    <row r="93" ht="14.25" customHeight="1">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="2"/>
+      <c r="AE93" s="2"/>
+    </row>
+    <row r="94" ht="14.25" customHeight="1">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
+      <c r="AD94" s="2"/>
+      <c r="AE94" s="2"/>
+    </row>
+    <row r="95" ht="14.25" customHeight="1">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="2"/>
+      <c r="AC95" s="2"/>
+      <c r="AD95" s="2"/>
+      <c r="AE95" s="2"/>
+    </row>
+    <row r="96" ht="14.25" customHeight="1">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
+    </row>
+    <row r="97" ht="14.25" customHeight="1">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
+    </row>
+    <row r="98" ht="14.25" customHeight="1">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
+      <c r="AB98" s="2"/>
+      <c r="AC98" s="2"/>
+      <c r="AD98" s="2"/>
+      <c r="AE98" s="2"/>
+    </row>
+    <row r="99" ht="14.25" customHeight="1">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+      <c r="AC99" s="2"/>
+      <c r="AD99" s="2"/>
+      <c r="AE99" s="2"/>
+    </row>
+    <row r="100" ht="14.25" customHeight="1">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+      <c r="AC100" s="2"/>
+      <c r="AD100" s="2"/>
+      <c r="AE100" s="2"/>
+    </row>
+    <row r="101" ht="14.25" customHeight="1">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+      <c r="AC101" s="2"/>
+      <c r="AD101" s="2"/>
+      <c r="AE101" s="2"/>
+    </row>
+    <row r="102" ht="14.25" customHeight="1">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+      <c r="AC102" s="2"/>
+      <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
+    </row>
+    <row r="103" ht="14.25" customHeight="1">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+      <c r="AC103" s="2"/>
+      <c r="AD103" s="2"/>
+      <c r="AE103" s="2"/>
+    </row>
+    <row r="104" ht="14.25" customHeight="1">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="2"/>
+      <c r="AC104" s="2"/>
+      <c r="AD104" s="2"/>
+      <c r="AE104" s="2"/>
+    </row>
+    <row r="105" ht="14.25" customHeight="1">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+      <c r="AB105" s="2"/>
+      <c r="AC105" s="2"/>
+      <c r="AD105" s="2"/>
+      <c r="AE105" s="2"/>
+    </row>
+    <row r="106" ht="14.25" customHeight="1">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+      <c r="AC106" s="2"/>
+      <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
+    </row>
+    <row r="107" ht="14.25" customHeight="1">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+      <c r="AC107" s="2"/>
+      <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
+    </row>
+    <row r="108" ht="14.25" customHeight="1">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+      <c r="AC108" s="2"/>
+      <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
+    </row>
+    <row r="109" ht="14.25" customHeight="1">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+      <c r="AC109" s="2"/>
+      <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
+    </row>
+    <row r="110" ht="14.25" customHeight="1">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+      <c r="AC110" s="2"/>
+      <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
+    </row>
+    <row r="111" ht="14.25" customHeight="1">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+      <c r="AC111" s="2"/>
+      <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
+    </row>
+    <row r="112" ht="14.25" customHeight="1">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+      <c r="AC112" s="2"/>
+      <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
+    </row>
+    <row r="113" ht="14.25" customHeight="1">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+      <c r="AC113" s="2"/>
+      <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
+    </row>
+    <row r="114" ht="14.25" customHeight="1">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="2"/>
+      <c r="Y114" s="2"/>
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
+      <c r="AB114" s="2"/>
+      <c r="AC114" s="2"/>
+      <c r="AD114" s="2"/>
+      <c r="AE114" s="2"/>
+    </row>
+    <row r="115" ht="14.25" customHeight="1">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+      <c r="AC115" s="2"/>
+      <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
+    </row>
+    <row r="116" ht="14.25" customHeight="1">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="2"/>
+      <c r="AC116" s="2"/>
+      <c r="AD116" s="2"/>
+      <c r="AE116" s="2"/>
+    </row>
+    <row r="117" ht="14.25" customHeight="1">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="2"/>
+      <c r="AC117" s="2"/>
+      <c r="AD117" s="2"/>
+      <c r="AE117" s="2"/>
+    </row>
+    <row r="118" ht="14.25" customHeight="1">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="2"/>
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="2"/>
+      <c r="AB118" s="2"/>
+      <c r="AC118" s="2"/>
+      <c r="AD118" s="2"/>
+      <c r="AE118" s="2"/>
+    </row>
+    <row r="119" ht="14.25" customHeight="1">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="2"/>
+      <c r="AB119" s="2"/>
+      <c r="AC119" s="2"/>
+      <c r="AD119" s="2"/>
+      <c r="AE119" s="2"/>
+    </row>
+    <row r="120" ht="14.25" customHeight="1">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="2"/>
+      <c r="AC120" s="2"/>
+      <c r="AD120" s="2"/>
+      <c r="AE120" s="2"/>
+    </row>
+    <row r="121" ht="14.25" customHeight="1">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="2"/>
+      <c r="Y121" s="2"/>
+      <c r="Z121" s="2"/>
+      <c r="AA121" s="2"/>
+      <c r="AB121" s="2"/>
+      <c r="AC121" s="2"/>
+      <c r="AD121" s="2"/>
+      <c r="AE121" s="2"/>
+    </row>
+    <row r="122" ht="14.25" customHeight="1">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2"/>
+      <c r="V122" s="2"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="2"/>
+      <c r="Y122" s="2"/>
+      <c r="Z122" s="2"/>
+      <c r="AA122" s="2"/>
+      <c r="AB122" s="2"/>
+      <c r="AC122" s="2"/>
+      <c r="AD122" s="2"/>
+      <c r="AE122" s="2"/>
+    </row>
+    <row r="123" ht="14.25" customHeight="1">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
+      <c r="W123" s="2"/>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="2"/>
+      <c r="Z123" s="2"/>
+      <c r="AA123" s="2"/>
+      <c r="AB123" s="2"/>
+      <c r="AC123" s="2"/>
+      <c r="AD123" s="2"/>
+      <c r="AE123" s="2"/>
+    </row>
+    <row r="124" ht="14.25" customHeight="1">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
+      <c r="AB124" s="2"/>
+      <c r="AC124" s="2"/>
+      <c r="AD124" s="2"/>
+      <c r="AE124" s="2"/>
+    </row>
+    <row r="125" ht="14.25" customHeight="1">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="2"/>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
+      <c r="AB125" s="2"/>
+      <c r="AC125" s="2"/>
+      <c r="AD125" s="2"/>
+      <c r="AE125" s="2"/>
+    </row>
+    <row r="126" ht="14.25" customHeight="1">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
+      <c r="AB126" s="2"/>
+      <c r="AC126" s="2"/>
+      <c r="AD126" s="2"/>
+      <c r="AE126" s="2"/>
+    </row>
+    <row r="127" ht="14.25" customHeight="1">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2"/>
+      <c r="V127" s="2"/>
+      <c r="W127" s="2"/>
+      <c r="X127" s="2"/>
+      <c r="Y127" s="2"/>
+      <c r="Z127" s="2"/>
+      <c r="AA127" s="2"/>
+      <c r="AB127" s="2"/>
+      <c r="AC127" s="2"/>
+      <c r="AD127" s="2"/>
+      <c r="AE127" s="2"/>
+    </row>
+    <row r="128" ht="14.25" customHeight="1">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="2"/>
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="2"/>
+      <c r="AB128" s="2"/>
+      <c r="AC128" s="2"/>
+      <c r="AD128" s="2"/>
+      <c r="AE128" s="2"/>
+    </row>
+    <row r="129" ht="14.25" customHeight="1">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
+      <c r="Z129" s="2"/>
+      <c r="AA129" s="2"/>
+      <c r="AB129" s="2"/>
+      <c r="AC129" s="2"/>
+      <c r="AD129" s="2"/>
+      <c r="AE129" s="2"/>
+    </row>
+    <row r="130" ht="14.25" customHeight="1">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="2"/>
+      <c r="Y130" s="2"/>
+      <c r="Z130" s="2"/>
+      <c r="AA130" s="2"/>
+      <c r="AB130" s="2"/>
+      <c r="AC130" s="2"/>
+      <c r="AD130" s="2"/>
+      <c r="AE130" s="2"/>
+    </row>
+    <row r="131" ht="14.25" customHeight="1">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2"/>
+      <c r="V131" s="2"/>
+      <c r="W131" s="2"/>
+      <c r="X131" s="2"/>
+      <c r="Y131" s="2"/>
+      <c r="Z131" s="2"/>
+      <c r="AA131" s="2"/>
+      <c r="AB131" s="2"/>
+      <c r="AC131" s="2"/>
+      <c r="AD131" s="2"/>
+      <c r="AE131" s="2"/>
+    </row>
+    <row r="132" ht="14.25" customHeight="1">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="2"/>
+      <c r="X132" s="2"/>
+      <c r="Y132" s="2"/>
+      <c r="Z132" s="2"/>
+      <c r="AA132" s="2"/>
+      <c r="AB132" s="2"/>
+      <c r="AC132" s="2"/>
+      <c r="AD132" s="2"/>
+      <c r="AE132" s="2"/>
+    </row>
+    <row r="133" ht="14.25" customHeight="1">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
+      <c r="V133" s="2"/>
+      <c r="W133" s="2"/>
+      <c r="X133" s="2"/>
+      <c r="Y133" s="2"/>
+      <c r="Z133" s="2"/>
+      <c r="AA133" s="2"/>
+      <c r="AB133" s="2"/>
+      <c r="AC133" s="2"/>
+      <c r="AD133" s="2"/>
+      <c r="AE133" s="2"/>
+    </row>
+    <row r="134" ht="14.25" customHeight="1">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="V134" s="2"/>
+      <c r="W134" s="2"/>
+      <c r="X134" s="2"/>
+      <c r="Y134" s="2"/>
+      <c r="Z134" s="2"/>
+      <c r="AA134" s="2"/>
+      <c r="AB134" s="2"/>
+      <c r="AC134" s="2"/>
+      <c r="AD134" s="2"/>
+      <c r="AE134" s="2"/>
+    </row>
+    <row r="135" ht="14.25" customHeight="1">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2"/>
+      <c r="V135" s="2"/>
+      <c r="W135" s="2"/>
+      <c r="X135" s="2"/>
+      <c r="Y135" s="2"/>
+      <c r="Z135" s="2"/>
+      <c r="AA135" s="2"/>
+      <c r="AB135" s="2"/>
+      <c r="AC135" s="2"/>
+      <c r="AD135" s="2"/>
+      <c r="AE135" s="2"/>
+    </row>
+    <row r="136" ht="14.25" customHeight="1">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
+      <c r="U136" s="2"/>
+      <c r="V136" s="2"/>
+      <c r="W136" s="2"/>
+      <c r="X136" s="2"/>
+      <c r="Y136" s="2"/>
+      <c r="Z136" s="2"/>
+      <c r="AA136" s="2"/>
+      <c r="AB136" s="2"/>
+      <c r="AC136" s="2"/>
+      <c r="AD136" s="2"/>
+      <c r="AE136" s="2"/>
+    </row>
+    <row r="137" ht="14.25" customHeight="1">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2"/>
+      <c r="V137" s="2"/>
+      <c r="W137" s="2"/>
+      <c r="X137" s="2"/>
+      <c r="Y137" s="2"/>
+      <c r="Z137" s="2"/>
+      <c r="AA137" s="2"/>
+      <c r="AB137" s="2"/>
+      <c r="AC137" s="2"/>
+      <c r="AD137" s="2"/>
+      <c r="AE137" s="2"/>
+    </row>
+    <row r="138" ht="14.25" customHeight="1">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2"/>
+      <c r="V138" s="2"/>
+      <c r="W138" s="2"/>
+      <c r="X138" s="2"/>
+      <c r="Y138" s="2"/>
+      <c r="Z138" s="2"/>
+      <c r="AA138" s="2"/>
+      <c r="AB138" s="2"/>
+      <c r="AC138" s="2"/>
+      <c r="AD138" s="2"/>
+      <c r="AE138" s="2"/>
+    </row>
+    <row r="139" ht="14.25" customHeight="1">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2"/>
+      <c r="V139" s="2"/>
+      <c r="W139" s="2"/>
+      <c r="X139" s="2"/>
+      <c r="Y139" s="2"/>
+      <c r="Z139" s="2"/>
+      <c r="AA139" s="2"/>
+      <c r="AB139" s="2"/>
+      <c r="AC139" s="2"/>
+      <c r="AD139" s="2"/>
+      <c r="AE139" s="2"/>
+    </row>
+    <row r="140" ht="14.25" customHeight="1">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2"/>
+      <c r="V140" s="2"/>
+      <c r="W140" s="2"/>
+      <c r="X140" s="2"/>
+      <c r="Y140" s="2"/>
+      <c r="Z140" s="2"/>
+      <c r="AA140" s="2"/>
+      <c r="AB140" s="2"/>
+      <c r="AC140" s="2"/>
+      <c r="AD140" s="2"/>
+      <c r="AE140" s="2"/>
+    </row>
+    <row r="141" ht="14.25" customHeight="1">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2"/>
+      <c r="V141" s="2"/>
+      <c r="W141" s="2"/>
+      <c r="X141" s="2"/>
+      <c r="Y141" s="2"/>
+      <c r="Z141" s="2"/>
+      <c r="AA141" s="2"/>
+      <c r="AB141" s="2"/>
+      <c r="AC141" s="2"/>
+      <c r="AD141" s="2"/>
+      <c r="AE141" s="2"/>
+    </row>
+    <row r="142" ht="14.25" customHeight="1">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2"/>
+      <c r="V142" s="2"/>
+      <c r="W142" s="2"/>
+      <c r="X142" s="2"/>
+      <c r="Y142" s="2"/>
+      <c r="Z142" s="2"/>
+      <c r="AA142" s="2"/>
+      <c r="AB142" s="2"/>
+      <c r="AC142" s="2"/>
+      <c r="AD142" s="2"/>
+      <c r="AE142" s="2"/>
+    </row>
+    <row r="143" ht="14.25" customHeight="1">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+      <c r="U143" s="2"/>
+      <c r="V143" s="2"/>
+      <c r="W143" s="2"/>
+      <c r="X143" s="2"/>
+      <c r="Y143" s="2"/>
+      <c r="Z143" s="2"/>
+      <c r="AA143" s="2"/>
+      <c r="AB143" s="2"/>
+      <c r="AC143" s="2"/>
+      <c r="AD143" s="2"/>
+      <c r="AE143" s="2"/>
+    </row>
+    <row r="144" ht="14.25" customHeight="1">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="2"/>
+      <c r="X144" s="2"/>
+      <c r="Y144" s="2"/>
+      <c r="Z144" s="2"/>
+      <c r="AA144" s="2"/>
+      <c r="AB144" s="2"/>
+      <c r="AC144" s="2"/>
+      <c r="AD144" s="2"/>
+      <c r="AE144" s="2"/>
+    </row>
+    <row r="145" ht="14.25" customHeight="1">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2"/>
+      <c r="V145" s="2"/>
+      <c r="W145" s="2"/>
+      <c r="X145" s="2"/>
+      <c r="Y145" s="2"/>
+      <c r="Z145" s="2"/>
+      <c r="AA145" s="2"/>
+      <c r="AB145" s="2"/>
+      <c r="AC145" s="2"/>
+      <c r="AD145" s="2"/>
+      <c r="AE145" s="2"/>
+    </row>
+    <row r="146" ht="14.25" customHeight="1">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2"/>
+      <c r="V146" s="2"/>
+      <c r="W146" s="2"/>
+      <c r="X146" s="2"/>
+      <c r="Y146" s="2"/>
+      <c r="Z146" s="2"/>
+      <c r="AA146" s="2"/>
+      <c r="AB146" s="2"/>
+      <c r="AC146" s="2"/>
+      <c r="AD146" s="2"/>
+      <c r="AE146" s="2"/>
+    </row>
+    <row r="147" ht="14.25" customHeight="1">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+      <c r="Q147" s="8"/>
+      <c r="R147" s="8"/>
+      <c r="S147" s="8"/>
+      <c r="T147" s="8"/>
+      <c r="U147" s="8"/>
+      <c r="V147" s="8"/>
+      <c r="W147" s="8"/>
+      <c r="X147" s="8"/>
+      <c r="Y147" s="8"/>
+      <c r="Z147" s="8"/>
+      <c r="AA147" s="8"/>
+      <c r="AB147" s="8"/>
+      <c r="AC147" s="8"/>
+      <c r="AD147" s="8"/>
+      <c r="AE147" s="8"/>
+    </row>
+    <row r="148" ht="14.25" customHeight="1">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="8"/>
+      <c r="S148" s="8"/>
+      <c r="T148" s="8"/>
+      <c r="U148" s="8"/>
+      <c r="V148" s="8"/>
+      <c r="W148" s="8"/>
+      <c r="X148" s="8"/>
+      <c r="Y148" s="8"/>
+      <c r="Z148" s="8"/>
+      <c r="AA148" s="8"/>
+      <c r="AB148" s="8"/>
+      <c r="AC148" s="8"/>
+      <c r="AD148" s="8"/>
+      <c r="AE148" s="8"/>
+    </row>
+    <row r="149" ht="14.25" customHeight="1">
+      <c r="A149" s="8"/>
+      <c r="B149" s="8"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+      <c r="Q149" s="8"/>
+      <c r="R149" s="8"/>
+      <c r="S149" s="8"/>
+      <c r="T149" s="8"/>
+      <c r="U149" s="8"/>
+      <c r="V149" s="8"/>
+      <c r="W149" s="8"/>
+      <c r="X149" s="8"/>
+      <c r="Y149" s="8"/>
+      <c r="Z149" s="8"/>
+      <c r="AA149" s="8"/>
+      <c r="AB149" s="8"/>
+      <c r="AC149" s="8"/>
+      <c r="AD149" s="8"/>
+      <c r="AE149" s="8"/>
+    </row>
+    <row r="150" ht="14.25" customHeight="1">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="8"/>
+      <c r="O150" s="8"/>
+      <c r="P150" s="8"/>
+      <c r="Q150" s="8"/>
+      <c r="R150" s="8"/>
+      <c r="S150" s="8"/>
+      <c r="T150" s="8"/>
+      <c r="U150" s="8"/>
+      <c r="V150" s="8"/>
+      <c r="W150" s="8"/>
+      <c r="X150" s="8"/>
+      <c r="Y150" s="8"/>
+      <c r="Z150" s="8"/>
+      <c r="AA150" s="8"/>
+      <c r="AB150" s="8"/>
+      <c r="AC150" s="8"/>
+      <c r="AD150" s="8"/>
+      <c r="AE150" s="8"/>
+    </row>
+    <row r="151" ht="14.25" customHeight="1">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+      <c r="Q151" s="8"/>
+      <c r="R151" s="8"/>
+      <c r="S151" s="8"/>
+      <c r="T151" s="8"/>
+      <c r="U151" s="8"/>
+      <c r="V151" s="8"/>
+      <c r="W151" s="8"/>
+      <c r="X151" s="8"/>
+      <c r="Y151" s="8"/>
+      <c r="Z151" s="8"/>
+      <c r="AA151" s="8"/>
+      <c r="AB151" s="8"/>
+      <c r="AC151" s="8"/>
+      <c r="AD151" s="8"/>
+      <c r="AE151" s="8"/>
+    </row>
+    <row r="152" ht="14.25" customHeight="1">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+      <c r="Q152" s="8"/>
+      <c r="R152" s="8"/>
+      <c r="S152" s="8"/>
+      <c r="T152" s="8"/>
+      <c r="U152" s="8"/>
+      <c r="V152" s="8"/>
+      <c r="W152" s="8"/>
+      <c r="X152" s="8"/>
+      <c r="Y152" s="8"/>
+      <c r="Z152" s="8"/>
+      <c r="AA152" s="8"/>
+      <c r="AB152" s="8"/>
+      <c r="AC152" s="8"/>
+      <c r="AD152" s="8"/>
+      <c r="AE152" s="8"/>
+    </row>
+    <row r="153" ht="14.25" customHeight="1"/>
+    <row r="154" ht="14.25" customHeight="1"/>
+    <row r="155" ht="14.25" customHeight="1"/>
+    <row r="156" ht="14.25" customHeight="1"/>
+    <row r="157" ht="14.25" customHeight="1"/>
+    <row r="158" ht="14.25" customHeight="1"/>
+    <row r="159" ht="14.25" customHeight="1"/>
+    <row r="160" ht="14.25" customHeight="1"/>
+    <row r="161" ht="14.25" customHeight="1"/>
+    <row r="162" ht="14.25" customHeight="1"/>
+    <row r="163" ht="14.25" customHeight="1"/>
+    <row r="164" ht="14.25" customHeight="1"/>
+    <row r="165" ht="14.25" customHeight="1"/>
+    <row r="166" ht="14.25" customHeight="1"/>
+    <row r="167" ht="14.25" customHeight="1"/>
+    <row r="168" ht="14.25" customHeight="1"/>
+    <row r="169" ht="14.25" customHeight="1"/>
+    <row r="170" ht="14.25" customHeight="1"/>
+    <row r="171" ht="14.25" customHeight="1"/>
+    <row r="172" ht="14.25" customHeight="1"/>
+    <row r="173" ht="14.25" customHeight="1"/>
+    <row r="174" ht="14.25" customHeight="1"/>
+    <row r="175" ht="14.25" customHeight="1"/>
+    <row r="176" ht="14.25" customHeight="1"/>
+    <row r="177" ht="14.25" customHeight="1"/>
+    <row r="178" ht="14.25" customHeight="1"/>
+    <row r="179" ht="14.25" customHeight="1"/>
+    <row r="180" ht="14.25" customHeight="1"/>
+    <row r="181" ht="14.25" customHeight="1"/>
+    <row r="182" ht="14.25" customHeight="1"/>
+    <row r="183" ht="14.25" customHeight="1"/>
+    <row r="184" ht="14.25" customHeight="1"/>
+    <row r="185" ht="14.25" customHeight="1"/>
+    <row r="186" ht="14.25" customHeight="1"/>
+    <row r="187" ht="14.25" customHeight="1"/>
+    <row r="188" ht="14.25" customHeight="1"/>
+    <row r="189" ht="14.25" customHeight="1"/>
+    <row r="190" ht="14.25" customHeight="1"/>
+    <row r="191" ht="14.25" customHeight="1"/>
+    <row r="192" ht="14.25" customHeight="1"/>
+    <row r="193" ht="14.25" customHeight="1"/>
+    <row r="194" ht="14.25" customHeight="1"/>
+    <row r="195" ht="14.25" customHeight="1"/>
+    <row r="196" ht="14.25" customHeight="1"/>
+    <row r="197" ht="14.25" customHeight="1"/>
+    <row r="198" ht="14.25" customHeight="1"/>
+    <row r="199" ht="14.25" customHeight="1"/>
+    <row r="200" ht="14.25" customHeight="1"/>
+    <row r="201" ht="14.25" customHeight="1"/>
+    <row r="202" ht="14.25" customHeight="1"/>
+    <row r="203" ht="14.25" customHeight="1"/>
+    <row r="204" ht="14.25" customHeight="1"/>
+    <row r="205" ht="14.25" customHeight="1"/>
+    <row r="206" ht="14.25" customHeight="1"/>
+    <row r="207" ht="14.25" customHeight="1"/>
+    <row r="208" ht="14.25" customHeight="1"/>
+    <row r="209" ht="14.25" customHeight="1"/>
+    <row r="210" ht="14.25" customHeight="1"/>
+    <row r="211" ht="14.25" customHeight="1"/>
+    <row r="212" ht="14.25" customHeight="1"/>
+    <row r="213" ht="14.25" customHeight="1"/>
+    <row r="214" ht="14.25" customHeight="1"/>
+    <row r="215" ht="14.25" customHeight="1"/>
+    <row r="216" ht="14.25" customHeight="1"/>
+    <row r="217" ht="14.25" customHeight="1"/>
+    <row r="218" ht="14.25" customHeight="1"/>
+    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="220" ht="14.25" customHeight="1"/>
+    <row r="221" ht="14.25" customHeight="1"/>
+    <row r="222" ht="14.25" customHeight="1"/>
+    <row r="223" ht="14.25" customHeight="1"/>
+    <row r="224" ht="14.25" customHeight="1"/>
+    <row r="225" ht="14.25" customHeight="1"/>
+    <row r="226" ht="14.25" customHeight="1"/>
+    <row r="227" ht="14.25" customHeight="1"/>
+    <row r="228" ht="14.25" customHeight="1"/>
+    <row r="229" ht="14.25" customHeight="1"/>
+    <row r="230" ht="14.25" customHeight="1"/>
+    <row r="231" ht="14.25" customHeight="1"/>
+    <row r="232" ht="14.25" customHeight="1"/>
+    <row r="233" ht="14.25" customHeight="1"/>
+    <row r="234" ht="14.25" customHeight="1"/>
+    <row r="235" ht="14.25" customHeight="1"/>
+    <row r="236" ht="14.25" customHeight="1"/>
+    <row r="237" ht="14.25" customHeight="1"/>
+    <row r="238" ht="14.25" customHeight="1"/>
+    <row r="239" ht="14.25" customHeight="1"/>
+    <row r="240" ht="14.25" customHeight="1"/>
+    <row r="241" ht="14.25" customHeight="1"/>
+    <row r="242" ht="14.25" customHeight="1"/>
+    <row r="243" ht="14.25" customHeight="1"/>
+    <row r="244" ht="14.25" customHeight="1"/>
+    <row r="245" ht="14.25" customHeight="1"/>
+    <row r="246" ht="14.25" customHeight="1"/>
+    <row r="247" ht="14.25" customHeight="1"/>
+    <row r="248" ht="14.25" customHeight="1"/>
+    <row r="249" ht="14.25" customHeight="1"/>
+    <row r="250" ht="14.25" customHeight="1"/>
+    <row r="251" ht="14.25" customHeight="1"/>
+    <row r="252" ht="14.25" customHeight="1"/>
+    <row r="253" ht="14.25" customHeight="1"/>
+    <row r="254" ht="14.25" customHeight="1"/>
+    <row r="255" ht="14.25" customHeight="1"/>
+    <row r="256" ht="14.25" customHeight="1"/>
+    <row r="257" ht="14.25" customHeight="1"/>
+    <row r="258" ht="14.25" customHeight="1"/>
+    <row r="259" ht="14.25" customHeight="1"/>
+    <row r="260" ht="14.25" customHeight="1"/>
+    <row r="261" ht="14.25" customHeight="1"/>
+    <row r="262" ht="14.25" customHeight="1"/>
+    <row r="263" ht="14.25" customHeight="1"/>
+    <row r="264" ht="14.25" customHeight="1"/>
+    <row r="265" ht="14.25" customHeight="1"/>
+    <row r="266" ht="14.25" customHeight="1"/>
+    <row r="267" ht="14.25" customHeight="1"/>
+    <row r="268" ht="14.25" customHeight="1"/>
+    <row r="269" ht="14.25" customHeight="1"/>
+    <row r="270" ht="14.25" customHeight="1"/>
+    <row r="271" ht="14.25" customHeight="1"/>
+    <row r="272" ht="14.25" customHeight="1"/>
+    <row r="273" ht="14.25" customHeight="1"/>
+    <row r="274" ht="14.25" customHeight="1"/>
+    <row r="275" ht="14.25" customHeight="1"/>
+    <row r="276" ht="14.25" customHeight="1"/>
+    <row r="277" ht="14.25" customHeight="1"/>
+    <row r="278" ht="14.25" customHeight="1"/>
+    <row r="279" ht="14.25" customHeight="1"/>
+    <row r="280" ht="14.25" customHeight="1"/>
+    <row r="281" ht="14.25" customHeight="1"/>
+    <row r="282" ht="14.25" customHeight="1"/>
+    <row r="283" ht="14.25" customHeight="1"/>
+    <row r="284" ht="14.25" customHeight="1"/>
+    <row r="285" ht="14.25" customHeight="1"/>
+    <row r="286" ht="14.25" customHeight="1"/>
+    <row r="287" ht="14.25" customHeight="1"/>
+    <row r="288" ht="14.25" customHeight="1"/>
+    <row r="289" ht="14.25" customHeight="1"/>
+    <row r="290" ht="14.25" customHeight="1"/>
+    <row r="291" ht="14.25" customHeight="1"/>
+    <row r="292" ht="14.25" customHeight="1"/>
+    <row r="293" ht="14.25" customHeight="1"/>
+    <row r="294" ht="14.25" customHeight="1"/>
+    <row r="295" ht="14.25" customHeight="1"/>
+    <row r="296" ht="14.25" customHeight="1"/>
+    <row r="297" ht="14.25" customHeight="1"/>
+    <row r="298" ht="14.25" customHeight="1"/>
+    <row r="299" ht="14.25" customHeight="1"/>
+    <row r="300" ht="14.25" customHeight="1"/>
+    <row r="301" ht="14.25" customHeight="1"/>
+    <row r="302" ht="14.25" customHeight="1"/>
+    <row r="303" ht="14.25" customHeight="1"/>
+    <row r="304" ht="14.25" customHeight="1"/>
+    <row r="305" ht="14.25" customHeight="1"/>
+    <row r="306" ht="14.25" customHeight="1"/>
+    <row r="307" ht="14.25" customHeight="1"/>
+    <row r="308" ht="14.25" customHeight="1"/>
+    <row r="309" ht="14.25" customHeight="1"/>
+    <row r="310" ht="14.25" customHeight="1"/>
+    <row r="311" ht="14.25" customHeight="1"/>
+    <row r="312" ht="14.25" customHeight="1"/>
+    <row r="313" ht="14.25" customHeight="1"/>
+    <row r="314" ht="14.25" customHeight="1"/>
+    <row r="315" ht="14.25" customHeight="1"/>
+    <row r="316" ht="14.25" customHeight="1"/>
+    <row r="317" ht="14.25" customHeight="1"/>
+    <row r="318" ht="14.25" customHeight="1"/>
+    <row r="319" ht="14.25" customHeight="1"/>
+    <row r="320" ht="14.25" customHeight="1"/>
+    <row r="321" ht="14.25" customHeight="1"/>
+    <row r="322" ht="14.25" customHeight="1"/>
+    <row r="323" ht="14.25" customHeight="1"/>
+    <row r="324" ht="14.25" customHeight="1"/>
+    <row r="325" ht="14.25" customHeight="1"/>
+    <row r="326" ht="14.25" customHeight="1"/>
+    <row r="327" ht="14.25" customHeight="1"/>
+    <row r="328" ht="14.25" customHeight="1"/>
+    <row r="329" ht="14.25" customHeight="1"/>
+    <row r="330" ht="14.25" customHeight="1"/>
+    <row r="331" ht="14.25" customHeight="1"/>
+    <row r="332" ht="14.25" customHeight="1"/>
+    <row r="333" ht="14.25" customHeight="1"/>
+    <row r="334" ht="14.25" customHeight="1"/>
+    <row r="335" ht="14.25" customHeight="1"/>
+    <row r="336" ht="14.25" customHeight="1"/>
+    <row r="337" ht="14.25" customHeight="1"/>
+    <row r="338" ht="14.25" customHeight="1"/>
+    <row r="339" ht="14.25" customHeight="1"/>
+    <row r="340" ht="14.25" customHeight="1"/>
+    <row r="341" ht="14.25" customHeight="1"/>
+    <row r="342" ht="14.25" customHeight="1"/>
+    <row r="343" ht="14.25" customHeight="1"/>
+    <row r="344" ht="14.25" customHeight="1"/>
+    <row r="345" ht="14.25" customHeight="1"/>
+    <row r="346" ht="14.25" customHeight="1"/>
+    <row r="347" ht="14.25" customHeight="1"/>
+    <row r="348" ht="14.25" customHeight="1"/>
+    <row r="349" ht="14.25" customHeight="1"/>
+    <row r="350" ht="14.25" customHeight="1"/>
+    <row r="351" ht="14.25" customHeight="1"/>
+    <row r="352" ht="14.25" customHeight="1"/>
+    <row r="353" ht="14.25" customHeight="1"/>
+    <row r="354" ht="14.25" customHeight="1"/>
+    <row r="355" ht="14.25" customHeight="1"/>
+    <row r="356" ht="14.25" customHeight="1"/>
+    <row r="357" ht="14.25" customHeight="1"/>
+    <row r="358" ht="14.25" customHeight="1"/>
+    <row r="359" ht="14.25" customHeight="1"/>
+    <row r="360" ht="14.25" customHeight="1"/>
+    <row r="361" ht="14.25" customHeight="1"/>
+    <row r="362" ht="14.25" customHeight="1"/>
+    <row r="363" ht="14.25" customHeight="1"/>
+    <row r="364" ht="14.25" customHeight="1"/>
+    <row r="365" ht="14.25" customHeight="1"/>
+    <row r="366" ht="14.25" customHeight="1"/>
+    <row r="367" ht="14.25" customHeight="1"/>
+    <row r="368" ht="14.25" customHeight="1"/>
+    <row r="369" ht="14.25" customHeight="1"/>
+    <row r="370" ht="14.25" customHeight="1"/>
+    <row r="371" ht="14.25" customHeight="1"/>
+    <row r="372" ht="14.25" customHeight="1"/>
+    <row r="373" ht="14.25" customHeight="1"/>
+    <row r="374" ht="14.25" customHeight="1"/>
+    <row r="375" ht="14.25" customHeight="1"/>
+    <row r="376" ht="14.25" customHeight="1"/>
+    <row r="377" ht="14.25" customHeight="1"/>
+    <row r="378" ht="14.25" customHeight="1"/>
+    <row r="379" ht="14.25" customHeight="1"/>
+    <row r="380" ht="14.25" customHeight="1"/>
+    <row r="381" ht="14.25" customHeight="1"/>
+    <row r="382" ht="14.25" customHeight="1"/>
+    <row r="383" ht="14.25" customHeight="1"/>
+    <row r="384" ht="14.25" customHeight="1"/>
+    <row r="385" ht="14.25" customHeight="1"/>
+    <row r="386" ht="14.25" customHeight="1"/>
+    <row r="387" ht="14.25" customHeight="1"/>
+    <row r="388" ht="14.25" customHeight="1"/>
+    <row r="389" ht="14.25" customHeight="1"/>
+    <row r="390" ht="14.25" customHeight="1"/>
+    <row r="391" ht="14.25" customHeight="1"/>
+    <row r="392" ht="14.25" customHeight="1"/>
+    <row r="393" ht="14.25" customHeight="1"/>
+    <row r="394" ht="14.25" customHeight="1"/>
+    <row r="395" ht="14.25" customHeight="1"/>
+    <row r="396" ht="14.25" customHeight="1"/>
+    <row r="397" ht="14.25" customHeight="1"/>
+    <row r="398" ht="14.25" customHeight="1"/>
+    <row r="399" ht="14.25" customHeight="1"/>
+    <row r="400" ht="14.25" customHeight="1"/>
+    <row r="401" ht="14.25" customHeight="1"/>
+    <row r="402" ht="14.25" customHeight="1"/>
+    <row r="403" ht="14.25" customHeight="1"/>
+    <row r="404" ht="14.25" customHeight="1"/>
+    <row r="405" ht="14.25" customHeight="1"/>
+    <row r="406" ht="14.25" customHeight="1"/>
+    <row r="407" ht="14.25" customHeight="1"/>
+    <row r="408" ht="14.25" customHeight="1"/>
+    <row r="409" ht="14.25" customHeight="1"/>
+    <row r="410" ht="14.25" customHeight="1"/>
+    <row r="411" ht="14.25" customHeight="1"/>
+    <row r="412" ht="14.25" customHeight="1"/>
+    <row r="413" ht="14.25" customHeight="1"/>
+    <row r="414" ht="14.25" customHeight="1"/>
+    <row r="415" ht="14.25" customHeight="1"/>
+    <row r="416" ht="14.25" customHeight="1"/>
+    <row r="417" ht="14.25" customHeight="1"/>
+    <row r="418" ht="14.25" customHeight="1"/>
+    <row r="419" ht="14.25" customHeight="1"/>
+    <row r="420" ht="14.25" customHeight="1"/>
+    <row r="421" ht="14.25" customHeight="1"/>
+    <row r="422" ht="14.25" customHeight="1"/>
+    <row r="423" ht="14.25" customHeight="1"/>
+    <row r="424" ht="14.25" customHeight="1"/>
+    <row r="425" ht="14.25" customHeight="1"/>
+    <row r="426" ht="14.25" customHeight="1"/>
+    <row r="427" ht="14.25" customHeight="1"/>
+    <row r="428" ht="14.25" customHeight="1"/>
+    <row r="429" ht="14.25" customHeight="1"/>
+    <row r="430" ht="14.25" customHeight="1"/>
+    <row r="431" ht="14.25" customHeight="1"/>
+    <row r="432" ht="14.25" customHeight="1"/>
+    <row r="433" ht="14.25" customHeight="1"/>
+    <row r="434" ht="14.25" customHeight="1"/>
+    <row r="435" ht="14.25" customHeight="1"/>
+    <row r="436" ht="14.25" customHeight="1"/>
+    <row r="437" ht="14.25" customHeight="1"/>
+    <row r="438" ht="14.25" customHeight="1"/>
+    <row r="439" ht="14.25" customHeight="1"/>
+    <row r="440" ht="14.25" customHeight="1"/>
+    <row r="441" ht="14.25" customHeight="1"/>
+    <row r="442" ht="14.25" customHeight="1"/>
+    <row r="443" ht="14.25" customHeight="1"/>
+    <row r="444" ht="14.25" customHeight="1"/>
+    <row r="445" ht="14.25" customHeight="1"/>
+    <row r="446" ht="14.25" customHeight="1"/>
+    <row r="447" ht="14.25" customHeight="1"/>
+    <row r="448" ht="14.25" customHeight="1"/>
+    <row r="449" ht="14.25" customHeight="1"/>
+    <row r="450" ht="14.25" customHeight="1"/>
+    <row r="451" ht="14.25" customHeight="1"/>
+    <row r="452" ht="14.25" customHeight="1"/>
+    <row r="453" ht="14.25" customHeight="1"/>
+    <row r="454" ht="14.25" customHeight="1"/>
+    <row r="455" ht="14.25" customHeight="1"/>
+    <row r="456" ht="14.25" customHeight="1"/>
+    <row r="457" ht="14.25" customHeight="1"/>
+    <row r="458" ht="14.25" customHeight="1"/>
+    <row r="459" ht="14.25" customHeight="1"/>
+    <row r="460" ht="14.25" customHeight="1"/>
+    <row r="461" ht="14.25" customHeight="1"/>
+    <row r="462" ht="14.25" customHeight="1"/>
+    <row r="463" ht="14.25" customHeight="1"/>
+    <row r="464" ht="14.25" customHeight="1"/>
+    <row r="465" ht="14.25" customHeight="1"/>
+    <row r="466" ht="14.25" customHeight="1"/>
+    <row r="467" ht="14.25" customHeight="1"/>
+    <row r="468" ht="14.25" customHeight="1"/>
+    <row r="469" ht="14.25" customHeight="1"/>
+    <row r="470" ht="14.25" customHeight="1"/>
+    <row r="471" ht="14.25" customHeight="1"/>
+    <row r="472" ht="14.25" customHeight="1"/>
+    <row r="473" ht="14.25" customHeight="1"/>
+    <row r="474" ht="14.25" customHeight="1"/>
+    <row r="475" ht="14.25" customHeight="1"/>
+    <row r="476" ht="14.25" customHeight="1"/>
+    <row r="477" ht="14.25" customHeight="1"/>
+    <row r="478" ht="14.25" customHeight="1"/>
+    <row r="479" ht="14.25" customHeight="1"/>
+    <row r="480" ht="14.25" customHeight="1"/>
+    <row r="481" ht="14.25" customHeight="1"/>
+    <row r="482" ht="14.25" customHeight="1"/>
+    <row r="483" ht="14.25" customHeight="1"/>
+    <row r="484" ht="14.25" customHeight="1"/>
+    <row r="485" ht="14.25" customHeight="1"/>
+    <row r="486" ht="14.25" customHeight="1"/>
+    <row r="487" ht="14.25" customHeight="1"/>
+    <row r="488" ht="14.25" customHeight="1"/>
+    <row r="489" ht="14.25" customHeight="1"/>
+    <row r="490" ht="14.25" customHeight="1"/>
+    <row r="491" ht="14.25" customHeight="1"/>
+    <row r="492" ht="14.25" customHeight="1"/>
+    <row r="493" ht="14.25" customHeight="1"/>
+    <row r="494" ht="14.25" customHeight="1"/>
+    <row r="495" ht="14.25" customHeight="1"/>
+    <row r="496" ht="14.25" customHeight="1"/>
+    <row r="497" ht="14.25" customHeight="1"/>
+    <row r="498" ht="14.25" customHeight="1"/>
+    <row r="499" ht="14.25" customHeight="1"/>
+    <row r="500" ht="14.25" customHeight="1"/>
+    <row r="501" ht="14.25" customHeight="1"/>
+    <row r="502" ht="14.25" customHeight="1"/>
+    <row r="503" ht="14.25" customHeight="1"/>
+    <row r="504" ht="14.25" customHeight="1"/>
+    <row r="505" ht="14.25" customHeight="1"/>
+    <row r="506" ht="14.25" customHeight="1"/>
+    <row r="507" ht="14.25" customHeight="1"/>
+    <row r="508" ht="14.25" customHeight="1"/>
+    <row r="509" ht="14.25" customHeight="1"/>
+    <row r="510" ht="14.25" customHeight="1"/>
+    <row r="511" ht="14.25" customHeight="1"/>
+    <row r="512" ht="14.25" customHeight="1"/>
+    <row r="513" ht="14.25" customHeight="1"/>
+    <row r="514" ht="14.25" customHeight="1"/>
+    <row r="515" ht="14.25" customHeight="1"/>
+    <row r="516" ht="14.25" customHeight="1"/>
+    <row r="517" ht="14.25" customHeight="1"/>
+    <row r="518" ht="14.25" customHeight="1"/>
+    <row r="519" ht="14.25" customHeight="1"/>
+    <row r="520" ht="14.25" customHeight="1"/>
+    <row r="521" ht="14.25" customHeight="1"/>
+    <row r="522" ht="14.25" customHeight="1"/>
+    <row r="523" ht="14.25" customHeight="1"/>
+    <row r="524" ht="14.25" customHeight="1"/>
+    <row r="525" ht="14.25" customHeight="1"/>
+    <row r="526" ht="14.25" customHeight="1"/>
+    <row r="527" ht="14.25" customHeight="1"/>
+    <row r="528" ht="14.25" customHeight="1"/>
+    <row r="529" ht="14.25" customHeight="1"/>
+    <row r="530" ht="14.25" customHeight="1"/>
+    <row r="531" ht="14.25" customHeight="1"/>
+    <row r="532" ht="14.25" customHeight="1"/>
+    <row r="533" ht="14.25" customHeight="1"/>
+    <row r="534" ht="14.25" customHeight="1"/>
+    <row r="535" ht="14.25" customHeight="1"/>
+    <row r="536" ht="14.25" customHeight="1"/>
+    <row r="537" ht="14.25" customHeight="1"/>
+    <row r="538" ht="14.25" customHeight="1"/>
+    <row r="539" ht="14.25" customHeight="1"/>
+    <row r="540" ht="14.25" customHeight="1"/>
+    <row r="541" ht="14.25" customHeight="1"/>
+    <row r="542" ht="14.25" customHeight="1"/>
+    <row r="543" ht="14.25" customHeight="1"/>
+    <row r="544" ht="14.25" customHeight="1"/>
+    <row r="545" ht="14.25" customHeight="1"/>
+    <row r="546" ht="14.25" customHeight="1"/>
+    <row r="547" ht="14.25" customHeight="1"/>
+    <row r="548" ht="14.25" customHeight="1"/>
+    <row r="549" ht="14.25" customHeight="1"/>
+    <row r="550" ht="14.25" customHeight="1"/>
+    <row r="551" ht="14.25" customHeight="1"/>
+    <row r="552" ht="14.25" customHeight="1"/>
+    <row r="553" ht="14.25" customHeight="1"/>
+    <row r="554" ht="14.25" customHeight="1"/>
+    <row r="555" ht="14.25" customHeight="1"/>
+    <row r="556" ht="14.25" customHeight="1"/>
+    <row r="557" ht="14.25" customHeight="1"/>
+    <row r="558" ht="14.25" customHeight="1"/>
+    <row r="559" ht="14.25" customHeight="1"/>
+    <row r="560" ht="14.25" customHeight="1"/>
+    <row r="561" ht="14.25" customHeight="1"/>
+    <row r="562" ht="14.25" customHeight="1"/>
+    <row r="563" ht="14.25" customHeight="1"/>
+    <row r="564" ht="14.25" customHeight="1"/>
+    <row r="565" ht="14.25" customHeight="1"/>
+    <row r="566" ht="14.25" customHeight="1"/>
+    <row r="567" ht="14.25" customHeight="1"/>
+    <row r="568" ht="14.25" customHeight="1"/>
+    <row r="569" ht="14.25" customHeight="1"/>
+    <row r="570" ht="14.25" customHeight="1"/>
+    <row r="571" ht="14.25" customHeight="1"/>
+    <row r="572" ht="14.25" customHeight="1"/>
+    <row r="573" ht="14.25" customHeight="1"/>
+    <row r="574" ht="14.25" customHeight="1"/>
+    <row r="575" ht="14.25" customHeight="1"/>
+    <row r="576" ht="14.25" customHeight="1"/>
+    <row r="577" ht="14.25" customHeight="1"/>
+    <row r="578" ht="14.25" customHeight="1"/>
+    <row r="579" ht="14.25" customHeight="1"/>
+    <row r="580" ht="14.25" customHeight="1"/>
+    <row r="581" ht="14.25" customHeight="1"/>
+    <row r="582" ht="14.25" customHeight="1"/>
+    <row r="583" ht="14.25" customHeight="1"/>
+    <row r="584" ht="14.25" customHeight="1"/>
+    <row r="585" ht="14.25" customHeight="1"/>
+    <row r="586" ht="14.25" customHeight="1"/>
+    <row r="587" ht="14.25" customHeight="1"/>
+    <row r="588" ht="14.25" customHeight="1"/>
+    <row r="589" ht="14.25" customHeight="1"/>
+    <row r="590" ht="14.25" customHeight="1"/>
+    <row r="591" ht="14.25" customHeight="1"/>
+    <row r="592" ht="14.25" customHeight="1"/>
+    <row r="593" ht="14.25" customHeight="1"/>
+    <row r="594" ht="14.25" customHeight="1"/>
+    <row r="595" ht="14.25" customHeight="1"/>
+    <row r="596" ht="14.25" customHeight="1"/>
+    <row r="597" ht="14.25" customHeight="1"/>
+    <row r="598" ht="14.25" customHeight="1"/>
+    <row r="599" ht="14.25" customHeight="1"/>
+    <row r="600" ht="14.25" customHeight="1"/>
+    <row r="601" ht="14.25" customHeight="1"/>
+    <row r="602" ht="14.25" customHeight="1"/>
+    <row r="603" ht="14.25" customHeight="1"/>
+    <row r="604" ht="14.25" customHeight="1"/>
+    <row r="605" ht="14.25" customHeight="1"/>
+    <row r="606" ht="14.25" customHeight="1"/>
+    <row r="607" ht="14.25" customHeight="1"/>
+    <row r="608" ht="14.25" customHeight="1"/>
+    <row r="609" ht="14.25" customHeight="1"/>
+    <row r="610" ht="14.25" customHeight="1"/>
+    <row r="611" ht="14.25" customHeight="1"/>
+    <row r="612" ht="14.25" customHeight="1"/>
+    <row r="613" ht="14.25" customHeight="1"/>
+    <row r="614" ht="14.25" customHeight="1"/>
+    <row r="615" ht="14.25" customHeight="1"/>
+    <row r="616" ht="14.25" customHeight="1"/>
+    <row r="617" ht="14.25" customHeight="1"/>
+    <row r="618" ht="14.25" customHeight="1"/>
+    <row r="619" ht="14.25" customHeight="1"/>
+    <row r="620" ht="14.25" customHeight="1"/>
+    <row r="621" ht="14.25" customHeight="1"/>
+    <row r="622" ht="14.25" customHeight="1"/>
+    <row r="623" ht="14.25" customHeight="1"/>
+    <row r="624" ht="14.25" customHeight="1"/>
+    <row r="625" ht="14.25" customHeight="1"/>
+    <row r="626" ht="14.25" customHeight="1"/>
+    <row r="627" ht="14.25" customHeight="1"/>
+    <row r="628" ht="14.25" customHeight="1"/>
+    <row r="629" ht="14.25" customHeight="1"/>
+    <row r="630" ht="14.25" customHeight="1"/>
+    <row r="631" ht="14.25" customHeight="1"/>
+    <row r="632" ht="14.25" customHeight="1"/>
+    <row r="633" ht="14.25" customHeight="1"/>
+    <row r="634" ht="14.25" customHeight="1"/>
+    <row r="635" ht="14.25" customHeight="1"/>
+    <row r="636" ht="14.25" customHeight="1"/>
+    <row r="637" ht="14.25" customHeight="1"/>
+    <row r="638" ht="14.25" customHeight="1"/>
+    <row r="639" ht="14.25" customHeight="1"/>
+    <row r="640" ht="14.25" customHeight="1"/>
+    <row r="641" ht="14.25" customHeight="1"/>
+    <row r="642" ht="14.25" customHeight="1"/>
+    <row r="643" ht="14.25" customHeight="1"/>
+    <row r="644" ht="14.25" customHeight="1"/>
+    <row r="645" ht="14.25" customHeight="1"/>
+    <row r="646" ht="14.25" customHeight="1"/>
+    <row r="647" ht="14.25" customHeight="1"/>
+    <row r="648" ht="14.25" customHeight="1"/>
+    <row r="649" ht="14.25" customHeight="1"/>
+    <row r="650" ht="14.25" customHeight="1"/>
+    <row r="651" ht="14.25" customHeight="1"/>
+    <row r="652" ht="14.25" customHeight="1"/>
+    <row r="653" ht="14.25" customHeight="1"/>
+    <row r="654" ht="14.25" customHeight="1"/>
+    <row r="655" ht="14.25" customHeight="1"/>
+    <row r="656" ht="14.25" customHeight="1"/>
+    <row r="657" ht="14.25" customHeight="1"/>
+    <row r="658" ht="14.25" customHeight="1"/>
+    <row r="659" ht="14.25" customHeight="1"/>
+    <row r="660" ht="14.25" customHeight="1"/>
+    <row r="661" ht="14.25" customHeight="1"/>
+    <row r="662" ht="14.25" customHeight="1"/>
+    <row r="663" ht="14.25" customHeight="1"/>
+    <row r="664" ht="14.25" customHeight="1"/>
+    <row r="665" ht="14.25" customHeight="1"/>
+    <row r="666" ht="14.25" customHeight="1"/>
+    <row r="667" ht="14.25" customHeight="1"/>
+    <row r="668" ht="14.25" customHeight="1"/>
+    <row r="669" ht="14.25" customHeight="1"/>
+    <row r="670" ht="14.25" customHeight="1"/>
+    <row r="671" ht="14.25" customHeight="1"/>
+    <row r="672" ht="14.25" customHeight="1"/>
+    <row r="673" ht="14.25" customHeight="1"/>
+    <row r="674" ht="14.25" customHeight="1"/>
+    <row r="675" ht="14.25" customHeight="1"/>
+    <row r="676" ht="14.25" customHeight="1"/>
+    <row r="677" ht="14.25" customHeight="1"/>
+    <row r="678" ht="14.25" customHeight="1"/>
+    <row r="679" ht="14.25" customHeight="1"/>
+    <row r="680" ht="14.25" customHeight="1"/>
+    <row r="681" ht="14.25" customHeight="1"/>
+    <row r="682" ht="14.25" customHeight="1"/>
+    <row r="683" ht="14.25" customHeight="1"/>
+    <row r="684" ht="14.25" customHeight="1"/>
+    <row r="685" ht="14.25" customHeight="1"/>
+    <row r="686" ht="14.25" customHeight="1"/>
+    <row r="687" ht="14.25" customHeight="1"/>
+    <row r="688" ht="14.25" customHeight="1"/>
+    <row r="689" ht="14.25" customHeight="1"/>
+    <row r="690" ht="14.25" customHeight="1"/>
+    <row r="691" ht="14.25" customHeight="1"/>
+    <row r="692" ht="14.25" customHeight="1"/>
+    <row r="693" ht="14.25" customHeight="1"/>
+    <row r="694" ht="14.25" customHeight="1"/>
+    <row r="695" ht="14.25" customHeight="1"/>
+    <row r="696" ht="14.25" customHeight="1"/>
+    <row r="697" ht="14.25" customHeight="1"/>
+    <row r="698" ht="14.25" customHeight="1"/>
+    <row r="699" ht="14.25" customHeight="1"/>
+    <row r="700" ht="14.25" customHeight="1"/>
+    <row r="701" ht="14.25" customHeight="1"/>
+    <row r="702" ht="14.25" customHeight="1"/>
+    <row r="703" ht="14.25" customHeight="1"/>
+    <row r="704" ht="14.25" customHeight="1"/>
+    <row r="705" ht="14.25" customHeight="1"/>
+    <row r="706" ht="14.25" customHeight="1"/>
+    <row r="707" ht="14.25" customHeight="1"/>
+    <row r="708" ht="14.25" customHeight="1"/>
+    <row r="709" ht="14.25" customHeight="1"/>
+    <row r="710" ht="14.25" customHeight="1"/>
+    <row r="711" ht="14.25" customHeight="1"/>
+    <row r="712" ht="14.25" customHeight="1"/>
+    <row r="713" ht="14.25" customHeight="1"/>
+    <row r="714" ht="14.25" customHeight="1"/>
+    <row r="715" ht="14.25" customHeight="1"/>
+    <row r="716" ht="14.25" customHeight="1"/>
+    <row r="717" ht="14.25" customHeight="1"/>
+    <row r="718" ht="14.25" customHeight="1"/>
+    <row r="719" ht="14.25" customHeight="1"/>
+    <row r="720" ht="14.25" customHeight="1"/>
+    <row r="721" ht="14.25" customHeight="1"/>
+    <row r="722" ht="14.25" customHeight="1"/>
+    <row r="723" ht="14.25" customHeight="1"/>
+    <row r="724" ht="14.25" customHeight="1"/>
+    <row r="725" ht="14.25" customHeight="1"/>
+    <row r="726" ht="14.25" customHeight="1"/>
+    <row r="727" ht="14.25" customHeight="1"/>
+    <row r="728" ht="14.25" customHeight="1"/>
+    <row r="729" ht="14.25" customHeight="1"/>
+    <row r="730" ht="14.25" customHeight="1"/>
+    <row r="731" ht="14.25" customHeight="1"/>
+    <row r="732" ht="14.25" customHeight="1"/>
+    <row r="733" ht="14.25" customHeight="1"/>
+    <row r="734" ht="14.25" customHeight="1"/>
+    <row r="735" ht="14.25" customHeight="1"/>
+    <row r="736" ht="14.25" customHeight="1"/>
+    <row r="737" ht="14.25" customHeight="1"/>
+    <row r="738" ht="14.25" customHeight="1"/>
+    <row r="739" ht="14.25" customHeight="1"/>
+    <row r="740" ht="14.25" customHeight="1"/>
+    <row r="741" ht="14.25" customHeight="1"/>
+    <row r="742" ht="14.25" customHeight="1"/>
+    <row r="743" ht="14.25" customHeight="1"/>
+    <row r="744" ht="14.25" customHeight="1"/>
+    <row r="745" ht="14.25" customHeight="1"/>
+    <row r="746" ht="14.25" customHeight="1"/>
+    <row r="747" ht="14.25" customHeight="1"/>
+    <row r="748" ht="14.25" customHeight="1"/>
+    <row r="749" ht="14.25" customHeight="1"/>
+    <row r="750" ht="14.25" customHeight="1"/>
+    <row r="751" ht="14.25" customHeight="1"/>
+    <row r="752" ht="14.25" customHeight="1"/>
+    <row r="753" ht="14.25" customHeight="1"/>
+    <row r="754" ht="14.25" customHeight="1"/>
+    <row r="755" ht="14.25" customHeight="1"/>
+    <row r="756" ht="14.25" customHeight="1"/>
+    <row r="757" ht="14.25" customHeight="1"/>
+    <row r="758" ht="14.25" customHeight="1"/>
+    <row r="759" ht="14.25" customHeight="1"/>
+    <row r="760" ht="14.25" customHeight="1"/>
+    <row r="761" ht="14.25" customHeight="1"/>
+    <row r="762" ht="14.25" customHeight="1"/>
+    <row r="763" ht="14.25" customHeight="1"/>
+    <row r="764" ht="14.25" customHeight="1"/>
+    <row r="765" ht="14.25" customHeight="1"/>
+    <row r="766" ht="14.25" customHeight="1"/>
+    <row r="767" ht="14.25" customHeight="1"/>
+    <row r="768" ht="14.25" customHeight="1"/>
+    <row r="769" ht="14.25" customHeight="1"/>
+    <row r="770" ht="14.25" customHeight="1"/>
+    <row r="771" ht="14.25" customHeight="1"/>
+    <row r="772" ht="14.25" customHeight="1"/>
+    <row r="773" ht="14.25" customHeight="1"/>
+    <row r="774" ht="14.25" customHeight="1"/>
+    <row r="775" ht="14.25" customHeight="1"/>
+    <row r="776" ht="14.25" customHeight="1"/>
+    <row r="777" ht="14.25" customHeight="1"/>
+    <row r="778" ht="14.25" customHeight="1"/>
+    <row r="779" ht="14.25" customHeight="1"/>
+    <row r="780" ht="14.25" customHeight="1"/>
+    <row r="781" ht="14.25" customHeight="1"/>
+    <row r="782" ht="14.25" customHeight="1"/>
+    <row r="783" ht="14.25" customHeight="1"/>
+    <row r="784" ht="14.25" customHeight="1"/>
+    <row r="785" ht="14.25" customHeight="1"/>
+    <row r="786" ht="14.25" customHeight="1"/>
+    <row r="787" ht="14.25" customHeight="1"/>
+    <row r="788" ht="14.25" customHeight="1"/>
+    <row r="789" ht="14.25" customHeight="1"/>
+    <row r="790" ht="14.25" customHeight="1"/>
+    <row r="791" ht="14.25" customHeight="1"/>
+    <row r="792" ht="14.25" customHeight="1"/>
+    <row r="793" ht="14.25" customHeight="1"/>
+    <row r="794" ht="14.25" customHeight="1"/>
+    <row r="795" ht="14.25" customHeight="1"/>
+    <row r="796" ht="14.25" customHeight="1"/>
+    <row r="797" ht="14.25" customHeight="1"/>
+    <row r="798" ht="14.25" customHeight="1"/>
+    <row r="799" ht="14.25" customHeight="1"/>
+    <row r="800" ht="14.25" customHeight="1"/>
+    <row r="801" ht="14.25" customHeight="1"/>
+    <row r="802" ht="14.25" customHeight="1"/>
+    <row r="803" ht="14.25" customHeight="1"/>
+    <row r="804" ht="14.25" customHeight="1"/>
+    <row r="805" ht="14.25" customHeight="1"/>
+    <row r="806" ht="14.25" customHeight="1"/>
+    <row r="807" ht="14.25" customHeight="1"/>
+    <row r="808" ht="14.25" customHeight="1"/>
+    <row r="809" ht="14.25" customHeight="1"/>
+    <row r="810" ht="14.25" customHeight="1"/>
+    <row r="811" ht="14.25" customHeight="1"/>
+    <row r="812" ht="14.25" customHeight="1"/>
+    <row r="813" ht="14.25" customHeight="1"/>
+    <row r="814" ht="14.25" customHeight="1"/>
+    <row r="815" ht="14.25" customHeight="1"/>
+    <row r="816" ht="14.25" customHeight="1"/>
+    <row r="817" ht="14.25" customHeight="1"/>
+    <row r="818" ht="14.25" customHeight="1"/>
+    <row r="819" ht="14.25" customHeight="1"/>
+    <row r="820" ht="14.25" customHeight="1"/>
+    <row r="821" ht="14.25" customHeight="1"/>
+    <row r="822" ht="14.25" customHeight="1"/>
+    <row r="823" ht="14.25" customHeight="1"/>
+    <row r="824" ht="14.25" customHeight="1"/>
+    <row r="825" ht="14.25" customHeight="1"/>
+    <row r="826" ht="14.25" customHeight="1"/>
+    <row r="827" ht="14.25" customHeight="1"/>
+    <row r="828" ht="14.25" customHeight="1"/>
+    <row r="829" ht="14.25" customHeight="1"/>
+    <row r="830" ht="14.25" customHeight="1"/>
+    <row r="831" ht="14.25" customHeight="1"/>
+    <row r="832" ht="14.25" customHeight="1"/>
+    <row r="833" ht="14.25" customHeight="1"/>
+    <row r="834" ht="14.25" customHeight="1"/>
+    <row r="835" ht="14.25" customHeight="1"/>
+    <row r="836" ht="14.25" customHeight="1"/>
+    <row r="837" ht="14.25" customHeight="1"/>
+    <row r="838" ht="14.25" customHeight="1"/>
+    <row r="839" ht="14.25" customHeight="1"/>
+    <row r="840" ht="14.25" customHeight="1"/>
+    <row r="841" ht="14.25" customHeight="1"/>
+    <row r="842" ht="14.25" customHeight="1"/>
+    <row r="843" ht="14.25" customHeight="1"/>
+    <row r="844" ht="14.25" customHeight="1"/>
+    <row r="845" ht="14.25" customHeight="1"/>
+    <row r="846" ht="14.25" customHeight="1"/>
+    <row r="847" ht="14.25" customHeight="1"/>
+    <row r="848" ht="14.25" customHeight="1"/>
+    <row r="849" ht="14.25" customHeight="1"/>
+    <row r="850" ht="14.25" customHeight="1"/>
+    <row r="851" ht="14.25" customHeight="1"/>
+    <row r="852" ht="14.25" customHeight="1"/>
+    <row r="853" ht="14.25" customHeight="1"/>
+    <row r="854" ht="14.25" customHeight="1"/>
+    <row r="855" ht="14.25" customHeight="1"/>
+    <row r="856" ht="14.25" customHeight="1"/>
+    <row r="857" ht="14.25" customHeight="1"/>
+    <row r="858" ht="14.25" customHeight="1"/>
+    <row r="859" ht="14.25" customHeight="1"/>
+    <row r="860" ht="14.25" customHeight="1"/>
+    <row r="861" ht="14.25" customHeight="1"/>
+    <row r="862" ht="14.25" customHeight="1"/>
+    <row r="863" ht="14.25" customHeight="1"/>
+    <row r="864" ht="14.25" customHeight="1"/>
+    <row r="865" ht="14.25" customHeight="1"/>
+    <row r="866" ht="14.25" customHeight="1"/>
+    <row r="867" ht="14.25" customHeight="1"/>
+    <row r="868" ht="14.25" customHeight="1"/>
+    <row r="869" ht="14.25" customHeight="1"/>
+    <row r="870" ht="14.25" customHeight="1"/>
+    <row r="871" ht="14.25" customHeight="1"/>
+    <row r="872" ht="14.25" customHeight="1"/>
+    <row r="873" ht="14.25" customHeight="1"/>
+    <row r="874" ht="14.25" customHeight="1"/>
+    <row r="875" ht="14.25" customHeight="1"/>
+    <row r="876" ht="14.25" customHeight="1"/>
+    <row r="877" ht="14.25" customHeight="1"/>
+    <row r="878" ht="14.25" customHeight="1"/>
+    <row r="879" ht="14.25" customHeight="1"/>
+    <row r="880" ht="14.25" customHeight="1"/>
+    <row r="881" ht="14.25" customHeight="1"/>
+    <row r="882" ht="14.25" customHeight="1"/>
+    <row r="883" ht="14.25" customHeight="1"/>
+    <row r="884" ht="14.25" customHeight="1"/>
+    <row r="885" ht="14.25" customHeight="1"/>
+    <row r="886" ht="14.25" customHeight="1"/>
+    <row r="887" ht="14.25" customHeight="1"/>
+    <row r="888" ht="14.25" customHeight="1"/>
+    <row r="889" ht="14.25" customHeight="1"/>
+    <row r="890" ht="14.25" customHeight="1"/>
+    <row r="891" ht="14.25" customHeight="1"/>
+    <row r="892" ht="14.25" customHeight="1"/>
+    <row r="893" ht="14.25" customHeight="1"/>
+    <row r="894" ht="14.25" customHeight="1"/>
+    <row r="895" ht="14.25" customHeight="1"/>
+    <row r="896" ht="14.25" customHeight="1"/>
+    <row r="897" ht="14.25" customHeight="1"/>
+    <row r="898" ht="14.25" customHeight="1"/>
+    <row r="899" ht="14.25" customHeight="1"/>
+    <row r="900" ht="14.25" customHeight="1"/>
+    <row r="901" ht="14.25" customHeight="1"/>
+    <row r="902" ht="14.25" customHeight="1"/>
+    <row r="903" ht="14.25" customHeight="1"/>
+    <row r="904" ht="14.25" customHeight="1"/>
+    <row r="905" ht="14.25" customHeight="1"/>
+    <row r="906" ht="14.25" customHeight="1"/>
+    <row r="907" ht="14.25" customHeight="1"/>
+    <row r="908" ht="14.25" customHeight="1"/>
+    <row r="909" ht="14.25" customHeight="1"/>
+    <row r="910" ht="14.25" customHeight="1"/>
+    <row r="911" ht="14.25" customHeight="1"/>
+    <row r="912" ht="14.25" customHeight="1"/>
+    <row r="913" ht="14.25" customHeight="1"/>
+    <row r="914" ht="14.25" customHeight="1"/>
+    <row r="915" ht="14.25" customHeight="1"/>
+    <row r="916" ht="14.25" customHeight="1"/>
+    <row r="917" ht="14.25" customHeight="1"/>
+    <row r="918" ht="14.25" customHeight="1"/>
+    <row r="919" ht="14.25" customHeight="1"/>
+    <row r="920" ht="14.25" customHeight="1"/>
+    <row r="921" ht="14.25" customHeight="1"/>
+    <row r="922" ht="14.25" customHeight="1"/>
+    <row r="923" ht="14.25" customHeight="1"/>
+    <row r="924" ht="14.25" customHeight="1"/>
+    <row r="925" ht="14.25" customHeight="1"/>
+    <row r="926" ht="14.25" customHeight="1"/>
+    <row r="927" ht="14.25" customHeight="1"/>
+    <row r="928" ht="14.25" customHeight="1"/>
+    <row r="929" ht="14.25" customHeight="1"/>
+    <row r="930" ht="14.25" customHeight="1"/>
+    <row r="931" ht="14.25" customHeight="1"/>
+    <row r="932" ht="14.25" customHeight="1"/>
+    <row r="933" ht="14.25" customHeight="1"/>
+    <row r="934" ht="14.25" customHeight="1"/>
+    <row r="935" ht="14.25" customHeight="1"/>
+    <row r="936" ht="14.25" customHeight="1"/>
+    <row r="937" ht="14.25" customHeight="1"/>
+    <row r="938" ht="14.25" customHeight="1"/>
+    <row r="939" ht="14.25" customHeight="1"/>
+    <row r="940" ht="14.25" customHeight="1"/>
+    <row r="941" ht="14.25" customHeight="1"/>
+    <row r="942" ht="14.25" customHeight="1"/>
+    <row r="943" ht="14.25" customHeight="1"/>
+    <row r="944" ht="14.25" customHeight="1"/>
+    <row r="945" ht="14.25" customHeight="1"/>
+    <row r="946" ht="14.25" customHeight="1"/>
+    <row r="947" ht="14.25" customHeight="1"/>
+    <row r="948" ht="14.25" customHeight="1"/>
+    <row r="949" ht="14.25" customHeight="1"/>
+    <row r="950" ht="14.25" customHeight="1"/>
+    <row r="951" ht="14.25" customHeight="1"/>
+    <row r="952" ht="14.25" customHeight="1"/>
+    <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
+    <row r="983" ht="14.25" customHeight="1"/>
+    <row r="984" ht="14.25" customHeight="1"/>
+    <row r="985" ht="14.25" customHeight="1"/>
+    <row r="986" ht="14.25" customHeight="1"/>
+    <row r="987" ht="14.25" customHeight="1"/>
+    <row r="988" ht="14.25" customHeight="1"/>
+    <row r="989" ht="14.25" customHeight="1"/>
+    <row r="990" ht="14.25" customHeight="1"/>
+    <row r="991" ht="14.25" customHeight="1"/>
+    <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
+    <row r="994" ht="14.25" customHeight="1"/>
+    <row r="995" ht="14.25" customHeight="1"/>
+    <row r="996" ht="14.25" customHeight="1"/>
+    <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_76.xlsx
+++ b/LR3/table_1_76.xlsx
@@ -1,19 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D53CF137-45C4-4D7E-B303-3FCFB81CC5E2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B4A7FF-E528-498A-9CF0-104929E1BCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <calcPr calcId="181029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -25,9 +32,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Авад</t>
   </si>
   <si>
@@ -139,9 +143,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -170,6 +171,12 @@
   </si>
   <si>
     <t>максимальная сумма к оплате, дней</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -516,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,7 +537,7 @@
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
     <col min="10" max="10" width="15.140625" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
   </cols>
@@ -555,34 +562,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -590,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -626,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <f>C3-0.5</f>
@@ -668,7 +675,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -710,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="4"/>
@@ -752,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="4"/>
@@ -794,7 +801,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" si="4"/>
@@ -836,7 +843,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="4"/>
@@ -878,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="4"/>
@@ -920,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="4"/>
@@ -962,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="4"/>
@@ -1004,7 +1011,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="4"/>
@@ -1046,7 +1053,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="4"/>
@@ -1088,7 +1095,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="4"/>
@@ -1130,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="4"/>
@@ -1172,7 +1179,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="4"/>
@@ -1214,7 +1221,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="4"/>
@@ -1256,7 +1263,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="4"/>
@@ -1298,7 +1305,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="4"/>
@@ -1340,7 +1347,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="4"/>
@@ -1382,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="4"/>
@@ -1424,7 +1431,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="4"/>
@@ -1466,7 +1473,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="4"/>
@@ -1508,7 +1515,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="4"/>
@@ -1550,7 +1557,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="4"/>
@@ -1592,7 +1599,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="4"/>
@@ -1634,7 +1641,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="4"/>
@@ -1676,7 +1683,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="4"/>
@@ -1718,7 +1725,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="4"/>
@@ -1760,7 +1767,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="4"/>
@@ -1802,7 +1809,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="4"/>
@@ -1844,7 +1851,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="4"/>
@@ -1886,7 +1893,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="4"/>
@@ -1928,7 +1935,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="4"/>
@@ -1970,7 +1977,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="4"/>
@@ -2012,7 +2019,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="4"/>
@@ -2054,7 +2061,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="4"/>
@@ -2093,7 +2100,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="2">
         <f>SUM(K3:K38)</f>
@@ -2102,7 +2109,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2111,7 +2118,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2120,7 +2127,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_76.xlsx
+++ b/LR3/table_1_76.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B4A7FF-E528-498A-9CF0-104929E1BCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4214116A-26ED-4D96-BA0E-B59EAF8E96E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +204,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -226,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -241,6 +248,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -615,7 +623,8 @@
       <c r="G3" s="3">
         <v>44805</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="8">
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -630,6 +639,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -640,11 +650,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D34" si="0">$A$1*1.1</f>
+        <f>D3</f>
         <v>83.600000000000009</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">D4*C4</f>
+        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
         <v>5810.2000000000007</v>
       </c>
       <c r="F4" s="3">
@@ -653,8 +663,8 @@
       <c r="G4" s="3">
         <v>44806</v>
       </c>
-      <c r="H4" s="1">
-        <f>IF(G4&lt;=F4,0,G4-F4)</f>
+      <c r="H4" s="8">
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -672,21 +682,22 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>83.600000000000009</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5768.4000000000005</v>
       </c>
       <c r="F5" s="3">
@@ -695,12 +706,12 @@
       <c r="G5" s="3">
         <v>44807</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5:H38" si="5">IF(G5&lt;=F5,0,G5-F5)</f>
+      <c r="H5" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="6">$I$3</f>
+        <f t="shared" ref="I5:I38" si="7">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -714,21 +725,22 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5726.6</v>
       </c>
       <c r="F6" s="3">
@@ -737,12 +749,12 @@
       <c r="G6" s="3">
         <v>44808</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" si="5"/>
+      <c r="H6" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -756,21 +768,22 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5684.8</v>
       </c>
       <c r="F7" s="3">
@@ -779,12 +792,12 @@
       <c r="G7" s="3">
         <v>44809</v>
       </c>
-      <c r="H7" s="1">
-        <f t="shared" si="5"/>
+      <c r="H7" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -798,21 +811,22 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5643.0000000000009</v>
       </c>
       <c r="F8" s="3">
@@ -821,12 +835,12 @@
       <c r="G8" s="3">
         <v>44810</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" si="5"/>
+      <c r="H8" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -840,21 +854,22 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5601.2000000000007</v>
       </c>
       <c r="F9" s="3">
@@ -863,12 +878,12 @@
       <c r="G9" s="3">
         <v>44811</v>
       </c>
-      <c r="H9" s="1">
-        <f t="shared" si="5"/>
+      <c r="H9" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -882,21 +897,22 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5559.4000000000005</v>
       </c>
       <c r="F10" s="3">
@@ -905,12 +921,12 @@
       <c r="G10" s="3">
         <v>44812</v>
       </c>
-      <c r="H10" s="1">
-        <f t="shared" si="5"/>
+      <c r="H10" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -924,21 +940,22 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5517.6</v>
       </c>
       <c r="F11" s="3">
@@ -947,12 +964,12 @@
       <c r="G11" s="3">
         <v>44813</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" si="5"/>
+      <c r="H11" s="8">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -966,21 +983,22 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5475.8</v>
       </c>
       <c r="F12" s="3">
@@ -989,12 +1007,12 @@
       <c r="G12" s="3">
         <v>44814</v>
       </c>
-      <c r="H12" s="1">
-        <f t="shared" si="5"/>
+      <c r="H12" s="8">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1008,21 +1026,22 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5434.0000000000009</v>
       </c>
       <c r="F13" s="3">
@@ -1031,12 +1050,12 @@
       <c r="G13" s="3">
         <v>44815</v>
       </c>
-      <c r="H13" s="1">
-        <f t="shared" si="5"/>
+      <c r="H13" s="8">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1050,21 +1069,22 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5392.2000000000007</v>
       </c>
       <c r="F14" s="3">
@@ -1073,12 +1093,12 @@
       <c r="G14" s="3">
         <v>44816</v>
       </c>
-      <c r="H14" s="1">
-        <f t="shared" si="5"/>
+      <c r="H14" s="8">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1092,21 +1112,22 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5350.4000000000005</v>
       </c>
       <c r="F15" s="3">
@@ -1115,12 +1136,12 @@
       <c r="G15" s="3">
         <v>44817</v>
       </c>
-      <c r="H15" s="1">
-        <f t="shared" si="5"/>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1134,21 +1155,22 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5308.6</v>
       </c>
       <c r="F16" s="3">
@@ -1157,12 +1179,12 @@
       <c r="G16" s="3">
         <v>44818</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" si="5"/>
+      <c r="H16" s="8">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1176,21 +1198,22 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5266.8</v>
       </c>
       <c r="F17" s="3">
@@ -1199,12 +1222,12 @@
       <c r="G17" s="3">
         <v>44819</v>
       </c>
-      <c r="H17" s="1">
-        <f t="shared" si="5"/>
+      <c r="H17" s="8">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1218,21 +1241,22 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5225.0000000000009</v>
       </c>
       <c r="F18" s="3">
@@ -1241,12 +1265,12 @@
       <c r="G18" s="3">
         <v>44820</v>
       </c>
-      <c r="H18" s="1">
-        <f t="shared" si="5"/>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1260,21 +1284,22 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5183.2000000000007</v>
       </c>
       <c r="F19" s="3">
@@ -1283,12 +1308,12 @@
       <c r="G19" s="3">
         <v>44821</v>
       </c>
-      <c r="H19" s="1">
-        <f t="shared" si="5"/>
+      <c r="H19" s="8">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1302,21 +1327,22 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5141.4000000000005</v>
       </c>
       <c r="F20" s="3">
@@ -1325,12 +1351,12 @@
       <c r="G20" s="3">
         <v>44822</v>
       </c>
-      <c r="H20" s="1">
-        <f t="shared" si="5"/>
+      <c r="H20" s="8">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1344,21 +1370,22 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5099.6000000000004</v>
       </c>
       <c r="F21" s="3">
@@ -1367,12 +1394,12 @@
       <c r="G21" s="3">
         <v>44823</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" si="5"/>
+      <c r="H21" s="8">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1386,21 +1413,22 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5057.8</v>
       </c>
       <c r="F22" s="3">
@@ -1409,12 +1437,12 @@
       <c r="G22" s="3">
         <v>44824</v>
       </c>
-      <c r="H22" s="1">
-        <f t="shared" si="5"/>
+      <c r="H22" s="8">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1428,21 +1456,22 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5016.0000000000009</v>
       </c>
       <c r="F23" s="3">
@@ -1451,12 +1480,12 @@
       <c r="G23" s="3">
         <v>44825</v>
       </c>
-      <c r="H23" s="1">
-        <f t="shared" si="5"/>
+      <c r="H23" s="8">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1470,21 +1499,22 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4974.2000000000007</v>
       </c>
       <c r="F24" s="3">
@@ -1493,12 +1523,12 @@
       <c r="G24" s="3">
         <v>44826</v>
       </c>
-      <c r="H24" s="1">
-        <f t="shared" si="5"/>
+      <c r="H24" s="8">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1512,21 +1542,22 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4932.4000000000005</v>
       </c>
       <c r="F25" s="3">
@@ -1535,12 +1566,12 @@
       <c r="G25" s="3">
         <v>44827</v>
       </c>
-      <c r="H25" s="1">
-        <f t="shared" si="5"/>
+      <c r="H25" s="8">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1554,21 +1585,22 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4890.6000000000004</v>
       </c>
       <c r="F26" s="3">
@@ -1577,12 +1609,12 @@
       <c r="G26" s="3">
         <v>44828</v>
       </c>
-      <c r="H26" s="1">
-        <f t="shared" si="5"/>
+      <c r="H26" s="8">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1596,21 +1628,22 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4848.8</v>
       </c>
       <c r="F27" s="3">
@@ -1619,12 +1652,12 @@
       <c r="G27" s="3">
         <v>44829</v>
       </c>
-      <c r="H27" s="1">
-        <f t="shared" si="5"/>
+      <c r="H27" s="8">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1638,21 +1671,22 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4807.0000000000009</v>
       </c>
       <c r="F28" s="3">
@@ -1661,12 +1695,12 @@
       <c r="G28" s="3">
         <v>44830</v>
       </c>
-      <c r="H28" s="1">
-        <f t="shared" si="5"/>
+      <c r="H28" s="8">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1680,21 +1714,22 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4765.2000000000007</v>
       </c>
       <c r="F29" s="3">
@@ -1703,12 +1738,12 @@
       <c r="G29" s="3">
         <v>44831</v>
       </c>
-      <c r="H29" s="1">
-        <f t="shared" si="5"/>
+      <c r="H29" s="8">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1722,21 +1757,22 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4723.4000000000005</v>
       </c>
       <c r="F30" s="3">
@@ -1745,12 +1781,12 @@
       <c r="G30" s="3">
         <v>44832</v>
       </c>
-      <c r="H30" s="1">
-        <f t="shared" si="5"/>
+      <c r="H30" s="8">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1764,21 +1800,22 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4681.6000000000004</v>
       </c>
       <c r="F31" s="3">
@@ -1787,12 +1824,12 @@
       <c r="G31" s="3">
         <v>44833</v>
       </c>
-      <c r="H31" s="1">
-        <f t="shared" si="5"/>
+      <c r="H31" s="8">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1806,21 +1843,22 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4639.8</v>
       </c>
       <c r="F32" s="3">
@@ -1829,12 +1867,12 @@
       <c r="G32" s="3">
         <v>44834</v>
       </c>
-      <c r="H32" s="1">
-        <f t="shared" si="5"/>
+      <c r="H32" s="8">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1848,21 +1886,22 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4598.0000000000009</v>
       </c>
       <c r="F33" s="3">
@@ -1871,12 +1910,12 @@
       <c r="G33" s="3">
         <v>44835</v>
       </c>
-      <c r="H33" s="1">
-        <f t="shared" si="5"/>
+      <c r="H33" s="8">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1890,21 +1929,22 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4556.2000000000007</v>
       </c>
       <c r="F34" s="3">
@@ -1913,12 +1953,12 @@
       <c r="G34" s="3">
         <v>44836</v>
       </c>
-      <c r="H34" s="1">
-        <f t="shared" si="5"/>
+      <c r="H34" s="8">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1932,22 +1972,23 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:D38" si="7">$D$3/2</f>
-        <v>41.800000000000004</v>
+        <f>D3/3</f>
+        <v>27.866666666666671</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>2257.2000000000003</v>
+        <f t="shared" si="0"/>
+        <v>1504.8000000000002</v>
       </c>
       <c r="F35" s="3">
         <v>44813</v>
@@ -1955,12 +1996,12 @@
       <c r="G35" s="3">
         <v>44837</v>
       </c>
-      <c r="H35" s="1">
-        <f t="shared" si="5"/>
+      <c r="H35" s="8">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -1969,27 +2010,28 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>2497.2000000000003</v>
+        <v>1744.8000000000002</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="7"/>
-        <v>41.800000000000004</v>
+        <f>D3/3</f>
+        <v>27.866666666666671</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>2236.3000000000002</v>
+        <f t="shared" si="0"/>
+        <v>1490.8666666666668</v>
       </c>
       <c r="F36" s="3">
         <v>44813</v>
@@ -1997,12 +2039,12 @@
       <c r="G36" s="3">
         <v>44838</v>
       </c>
-      <c r="H36" s="1">
-        <f t="shared" si="5"/>
+      <c r="H36" s="8">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2011,27 +2053,28 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>2486.3000000000002</v>
+        <v>1740.8666666666668</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="7"/>
-        <v>41.800000000000004</v>
+        <f>D3/3</f>
+        <v>27.866666666666671</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>2215.4</v>
+        <f t="shared" si="0"/>
+        <v>1476.9333333333336</v>
       </c>
       <c r="F37" s="3">
         <v>44813</v>
@@ -2039,12 +2082,12 @@
       <c r="G37" s="3">
         <v>44839</v>
       </c>
-      <c r="H37" s="1">
-        <f t="shared" si="5"/>
+      <c r="H37" s="8">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2053,27 +2096,28 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>2475.4</v>
+        <v>1736.9333333333336</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="7"/>
-        <v>41.800000000000004</v>
+        <f>D3/3</f>
+        <v>27.866666666666671</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>2194.5</v>
+        <f t="shared" si="0"/>
+        <v>1463.0000000000002</v>
       </c>
       <c r="F38" s="3">
         <v>44813</v>
@@ -2081,12 +2125,12 @@
       <c r="G38" s="3">
         <v>44840</v>
       </c>
-      <c r="H38" s="1">
-        <f t="shared" si="5"/>
+      <c r="H38" s="8">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2095,7 +2139,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>2464.5</v>
+        <v>1733.0000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2103,8 +2147,8 @@
         <v>44</v>
       </c>
       <c r="C40" s="2">
-        <f>SUM(K3:K38)</f>
-        <v>179214.6</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>176246</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">

--- a/LR3/table_1_76.xlsx
+++ b/LR3/table_1_76.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4214116A-26ED-4D96-BA0E-B59EAF8E96E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EEE236-5EF8-4CDA-915D-7EAC4D713320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -137,12 +137,6 @@
     <t>Куропаткин 16</t>
   </si>
   <si>
-    <t>Срок оплаты</t>
-  </si>
-  <si>
-    <t>Дата оплаты</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -177,6 +171,15 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Срок оплаты, дней</t>
+  </si>
+  <si>
+    <t>Дата оплаты, дней</t>
   </si>
 </sst>
 </file>
@@ -531,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,34 +573,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1470,9 +1473,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>5016.0000000000009</v>
+      <c r="E23" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F23" s="3">
         <v>44813</v>
@@ -1492,9 +1494,9 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
-        <f t="shared" si="3"/>
-        <v>5136.0000000000009</v>
+      <c r="K23" s="1" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2144,16 +2146,16 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="2">
+        <v>42</v>
+      </c>
+      <c r="C40" s="2" t="e">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>176246</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2162,7 +2164,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2171,11 +2173,11 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="2">
+        <v>45</v>
+      </c>
+      <c r="C43" s="2" t="e">
         <f>MAX(K3:K38)</f>
-        <v>5852</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_76.xlsx
+++ b/LR3/table_1_76.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EEE236-5EF8-4CDA-915D-7EAC4D713320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C5C12B-2FE0-4338-A79F-5CDE5A29E737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,8 +545,8 @@
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
     <col min="9" max="9" width="22.140625" customWidth="1"/>
     <col min="10" max="10" width="15.140625" customWidth="1"/>

--- a/LR3/table_1_76.xlsx
+++ b/LR3/table_1_76.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C5C12B-2FE0-4338-A79F-5CDE5A29E737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7296A635-98FF-4519-BC05-B0208867E20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Нуруллина</t>
   </si>
   <si>
-    <t>Перьмяков</t>
-  </si>
-  <si>
     <t>Ратушин</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Хакимов</t>
   </si>
   <si>
-    <t>Шаймоарданов</t>
-  </si>
-  <si>
     <t>Шакиров</t>
   </si>
   <si>
@@ -155,31 +149,34 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Общая сумма, руб</t>
-  </si>
-  <si>
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>максимальная сумма к оплате, дней</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Срок оплаты, дней</t>
-  </si>
-  <si>
-    <t>Дата оплаты, дней</t>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Пермяков</t>
+  </si>
+  <si>
+    <t>Шаймарданов</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -236,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -252,6 +249,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -534,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,41 +571,41 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1">
@@ -618,7 +616,8 @@
         <v>83.600000000000009</v>
       </c>
       <c r="E3" s="1">
-        <v>5852</v>
+        <f>C3*D3</f>
+        <v>5852.0000000000009</v>
       </c>
       <c r="F3" s="3">
         <v>44813</v>
@@ -633,11 +632,13 @@
       <c r="I3" s="1">
         <v>10</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="9">
+        <f t="shared" ref="J3:J38" si="0">H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="1">
-        <v>5852</v>
+      <c r="K3" s="9">
+        <f t="shared" ref="K3:K38" si="1">E3+J3</f>
+        <v>5852.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -645,7 +646,7 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4">
@@ -656,8 +657,8 @@
         <f>D3</f>
         <v>83.600000000000009</v>
       </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">D4*C4</f>
+      <c r="E4" s="9">
+        <f t="shared" ref="E4:E38" si="2">C4*D4</f>
         <v>5810.2000000000007</v>
       </c>
       <c r="F4" s="3">
@@ -667,7 +668,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="8">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="3">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -675,11 +676,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" si="1"/>
         <v>5810.2000000000007</v>
       </c>
     </row>
@@ -688,7 +689,7 @@
         <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
@@ -699,8 +700,8 @@
         <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>83.600000000000009</v>
       </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
+      <c r="E5" s="9">
+        <f t="shared" si="2"/>
         <v>5768.4000000000005</v>
       </c>
       <c r="F5" s="3">
@@ -710,7 +711,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -718,11 +719,11 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5768.4000000000005</v>
       </c>
     </row>
@@ -731,7 +732,7 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
@@ -742,8 +743,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
+      <c r="E6" s="9">
+        <f t="shared" si="2"/>
         <v>5726.6</v>
       </c>
       <c r="F6" s="3">
@@ -753,7 +754,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -761,11 +762,11 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5726.6</v>
       </c>
     </row>
@@ -774,7 +775,7 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
@@ -785,8 +786,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
+      <c r="E7" s="9">
+        <f t="shared" si="2"/>
         <v>5684.8</v>
       </c>
       <c r="F7" s="3">
@@ -796,7 +797,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -804,11 +805,11 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5684.8</v>
       </c>
     </row>
@@ -817,7 +818,7 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="4">
@@ -828,8 +829,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
+      <c r="E8" s="9">
+        <f t="shared" si="2"/>
         <v>5643.0000000000009</v>
       </c>
       <c r="F8" s="3">
@@ -839,7 +840,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -847,11 +848,11 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5643.0000000000009</v>
       </c>
     </row>
@@ -860,7 +861,7 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="4">
@@ -871,8 +872,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
+      <c r="E9" s="9">
+        <f t="shared" si="2"/>
         <v>5601.2000000000007</v>
       </c>
       <c r="F9" s="3">
@@ -882,7 +883,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -890,11 +891,11 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5601.2000000000007</v>
       </c>
     </row>
@@ -903,7 +904,7 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="4">
@@ -914,8 +915,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
+      <c r="E10" s="9">
+        <f t="shared" si="2"/>
         <v>5559.4000000000005</v>
       </c>
       <c r="F10" s="3">
@@ -925,7 +926,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -933,11 +934,11 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5559.4000000000005</v>
       </c>
     </row>
@@ -946,7 +947,7 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4">
@@ -957,8 +958,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
+      <c r="E11" s="9">
+        <f t="shared" si="2"/>
         <v>5517.6</v>
       </c>
       <c r="F11" s="3">
@@ -968,7 +969,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -976,11 +977,11 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5517.6</v>
       </c>
     </row>
@@ -989,7 +990,7 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4">
@@ -1000,8 +1001,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
+      <c r="E12" s="9">
+        <f t="shared" si="2"/>
         <v>5475.8</v>
       </c>
       <c r="F12" s="3">
@@ -1011,7 +1012,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1019,11 +1020,11 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5485.8</v>
       </c>
     </row>
@@ -1032,8 +1033,8 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
+      <c r="B13" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="5"/>
@@ -1043,8 +1044,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
+      <c r="E13" s="9">
+        <f t="shared" si="2"/>
         <v>5434.0000000000009</v>
       </c>
       <c r="F13" s="3">
@@ -1054,7 +1055,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1062,11 +1063,11 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5454.0000000000009</v>
       </c>
     </row>
@@ -1075,8 +1076,8 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
+      <c r="B14" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="5"/>
@@ -1086,8 +1087,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
+      <c r="E14" s="9">
+        <f t="shared" si="2"/>
         <v>5392.2000000000007</v>
       </c>
       <c r="F14" s="3">
@@ -1097,7 +1098,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1105,11 +1106,11 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5422.2000000000007</v>
       </c>
     </row>
@@ -1118,8 +1119,8 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>12</v>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="5"/>
@@ -1129,8 +1130,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
+      <c r="E15" s="9">
+        <f t="shared" si="2"/>
         <v>5350.4000000000005</v>
       </c>
       <c r="F15" s="3">
@@ -1140,7 +1141,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1148,11 +1149,11 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5390.4000000000005</v>
       </c>
     </row>
@@ -1161,8 +1162,8 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>13</v>
+      <c r="B16" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" si="5"/>
@@ -1172,8 +1173,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
+      <c r="E16" s="9">
+        <f t="shared" si="2"/>
         <v>5308.6</v>
       </c>
       <c r="F16" s="3">
@@ -1183,7 +1184,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1191,11 +1192,11 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5358.6</v>
       </c>
     </row>
@@ -1204,8 +1205,8 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
+      <c r="B17" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="5"/>
@@ -1215,8 +1216,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
+      <c r="E17" s="9">
+        <f t="shared" si="2"/>
         <v>5266.8</v>
       </c>
       <c r="F17" s="3">
@@ -1226,7 +1227,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1234,11 +1235,11 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5326.8</v>
       </c>
     </row>
@@ -1247,8 +1248,8 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>15</v>
+      <c r="B18" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" si="5"/>
@@ -1258,8 +1259,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
+      <c r="E18" s="9">
+        <f t="shared" si="2"/>
         <v>5225.0000000000009</v>
       </c>
       <c r="F18" s="3">
@@ -1269,7 +1270,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1277,11 +1278,11 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5295.0000000000009</v>
       </c>
     </row>
@@ -1290,8 +1291,8 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>16</v>
+      <c r="B19" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="5"/>
@@ -1301,8 +1302,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
+      <c r="E19" s="9">
+        <f t="shared" si="2"/>
         <v>5183.2000000000007</v>
       </c>
       <c r="F19" s="3">
@@ -1312,7 +1313,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1320,11 +1321,11 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5263.2000000000007</v>
       </c>
     </row>
@@ -1333,8 +1334,8 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
+      <c r="B20" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="5"/>
@@ -1344,8 +1345,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
+      <c r="E20" s="9">
+        <f t="shared" si="2"/>
         <v>5141.4000000000005</v>
       </c>
       <c r="F20" s="3">
@@ -1355,7 +1356,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1363,11 +1364,11 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5231.4000000000005</v>
       </c>
     </row>
@@ -1376,8 +1377,8 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>18</v>
+      <c r="B21" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="5"/>
@@ -1387,8 +1388,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
+      <c r="E21" s="9">
+        <f t="shared" si="2"/>
         <v>5099.6000000000004</v>
       </c>
       <c r="F21" s="3">
@@ -1398,7 +1399,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1406,11 +1407,11 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5199.6000000000004</v>
       </c>
     </row>
@@ -1419,8 +1420,8 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
+      <c r="B22" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="5"/>
@@ -1430,8 +1431,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
+      <c r="E22" s="9">
+        <f t="shared" si="2"/>
         <v>5057.8</v>
       </c>
       <c r="F22" s="3">
@@ -1441,7 +1442,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1449,11 +1450,11 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5167.8</v>
       </c>
     </row>
@@ -1463,7 +1464,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="5"/>
@@ -1473,8 +1474,9 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>48</v>
+      <c r="E23" s="9">
+        <f t="shared" si="2"/>
+        <v>5016.0000000000009</v>
       </c>
       <c r="F23" s="3">
         <v>44813</v>
@@ -1483,7 +1485,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1491,12 +1493,12 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+      <c r="K23" s="1">
+        <f t="shared" si="1"/>
+        <v>5136.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1505,7 +1507,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" si="5"/>
@@ -1515,8 +1517,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E24" s="1">
-        <f t="shared" si="0"/>
+      <c r="E24" s="9">
+        <f t="shared" si="2"/>
         <v>4974.2000000000007</v>
       </c>
       <c r="F24" s="3">
@@ -1526,7 +1528,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1534,11 +1536,11 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5104.2000000000007</v>
       </c>
     </row>
@@ -1548,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="5"/>
@@ -1558,8 +1560,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E25" s="1">
-        <f t="shared" si="0"/>
+      <c r="E25" s="9">
+        <f t="shared" si="2"/>
         <v>4932.4000000000005</v>
       </c>
       <c r="F25" s="3">
@@ -1569,7 +1571,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1577,11 +1579,11 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5072.4000000000005</v>
       </c>
     </row>
@@ -1591,7 +1593,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" si="5"/>
@@ -1601,8 +1603,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E26" s="1">
-        <f t="shared" si="0"/>
+      <c r="E26" s="9">
+        <f t="shared" si="2"/>
         <v>4890.6000000000004</v>
       </c>
       <c r="F26" s="3">
@@ -1612,7 +1614,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1620,11 +1622,11 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5040.6000000000004</v>
       </c>
     </row>
@@ -1634,7 +1636,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="5"/>
@@ -1644,8 +1646,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E27" s="1">
-        <f t="shared" si="0"/>
+      <c r="E27" s="9">
+        <f t="shared" si="2"/>
         <v>4848.8</v>
       </c>
       <c r="F27" s="3">
@@ -1655,7 +1657,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1663,11 +1665,11 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5008.8</v>
       </c>
     </row>
@@ -1677,7 +1679,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" si="5"/>
@@ -1687,8 +1689,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E28" s="1">
-        <f t="shared" si="0"/>
+      <c r="E28" s="9">
+        <f t="shared" si="2"/>
         <v>4807.0000000000009</v>
       </c>
       <c r="F28" s="3">
@@ -1698,7 +1700,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1706,11 +1708,11 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4977.0000000000009</v>
       </c>
     </row>
@@ -1720,7 +1722,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="5"/>
@@ -1730,8 +1732,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E29" s="1">
-        <f t="shared" si="0"/>
+      <c r="E29" s="9">
+        <f t="shared" si="2"/>
         <v>4765.2000000000007</v>
       </c>
       <c r="F29" s="3">
@@ -1741,7 +1743,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1749,11 +1751,11 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4945.2000000000007</v>
       </c>
     </row>
@@ -1763,7 +1765,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="5"/>
@@ -1773,8 +1775,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E30" s="1">
-        <f t="shared" si="0"/>
+      <c r="E30" s="9">
+        <f t="shared" si="2"/>
         <v>4723.4000000000005</v>
       </c>
       <c r="F30" s="3">
@@ -1784,7 +1786,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1792,11 +1794,11 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4913.4000000000005</v>
       </c>
     </row>
@@ -1806,7 +1808,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="5"/>
@@ -1816,8 +1818,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E31" s="1">
-        <f t="shared" si="0"/>
+      <c r="E31" s="9">
+        <f t="shared" si="2"/>
         <v>4681.6000000000004</v>
       </c>
       <c r="F31" s="3">
@@ -1827,7 +1829,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1835,11 +1837,11 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4881.6000000000004</v>
       </c>
     </row>
@@ -1849,7 +1851,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" si="5"/>
@@ -1859,8 +1861,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E32" s="1">
-        <f t="shared" si="0"/>
+      <c r="E32" s="9">
+        <f t="shared" si="2"/>
         <v>4639.8</v>
       </c>
       <c r="F32" s="3">
@@ -1870,7 +1872,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1878,11 +1880,11 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4849.8</v>
       </c>
     </row>
@@ -1892,7 +1894,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" si="5"/>
@@ -1902,8 +1904,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E33" s="1">
-        <f t="shared" si="0"/>
+      <c r="E33" s="9">
+        <f t="shared" si="2"/>
         <v>4598.0000000000009</v>
       </c>
       <c r="F33" s="3">
@@ -1913,7 +1915,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1921,11 +1923,11 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4818.0000000000009</v>
       </c>
     </row>
@@ -1935,7 +1937,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" si="5"/>
@@ -1945,8 +1947,8 @@
         <f t="shared" si="6"/>
         <v>83.600000000000009</v>
       </c>
-      <c r="E34" s="1">
-        <f t="shared" si="0"/>
+      <c r="E34" s="9">
+        <f t="shared" si="2"/>
         <v>4556.2000000000007</v>
       </c>
       <c r="F34" s="3">
@@ -1956,7 +1958,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -1964,11 +1966,11 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4786.2000000000007</v>
       </c>
     </row>
@@ -1978,19 +1980,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="1">
-        <f>D3/3</f>
-        <v>27.866666666666671</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="0"/>
-        <v>1504.8000000000002</v>
+      <c r="D35" s="9">
+        <f>D3/2</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E35" s="9">
+        <f t="shared" si="2"/>
+        <v>2257.2000000000003</v>
       </c>
       <c r="F35" s="3">
         <v>44813</v>
@@ -1999,7 +2001,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2007,12 +2009,12 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
-        <v>1744.8000000000002</v>
+        <f t="shared" si="1"/>
+        <v>2497.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2021,19 +2023,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="4">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="1">
-        <f>D3/3</f>
-        <v>27.866666666666671</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="0"/>
-        <v>1490.8666666666668</v>
+      <c r="D36" s="9">
+        <f>D3/2</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E36" s="9">
+        <f t="shared" si="2"/>
+        <v>2236.3000000000002</v>
       </c>
       <c r="F36" s="3">
         <v>44813</v>
@@ -2042,7 +2044,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2050,12 +2052,12 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
-        <v>1740.8666666666668</v>
+        <f t="shared" si="1"/>
+        <v>2486.3000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2064,19 +2066,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="1">
-        <f>D3/3</f>
-        <v>27.866666666666671</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="0"/>
-        <v>1476.9333333333336</v>
+      <c r="D37" s="9">
+        <f>D3/2</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E37" s="9">
+        <f t="shared" si="2"/>
+        <v>2215.4</v>
       </c>
       <c r="F37" s="3">
         <v>44813</v>
@@ -2085,7 +2087,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2093,12 +2095,12 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
-        <v>1736.9333333333336</v>
+        <f t="shared" si="1"/>
+        <v>2475.4</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2107,19 +2109,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="1">
-        <f>D3/3</f>
-        <v>27.866666666666671</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>1463.0000000000002</v>
+      <c r="D38" s="9">
+        <f>D3/2</f>
+        <v>41.800000000000004</v>
+      </c>
+      <c r="E38" s="9">
+        <f t="shared" si="2"/>
+        <v>2194.5</v>
       </c>
       <c r="F38" s="3">
         <v>44813</v>
@@ -2128,7 +2130,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2136,48 +2138,48 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="3"/>
-        <v>1733.0000000000002</v>
+        <f t="shared" si="1"/>
+        <v>2464.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="2" t="e">
+      <c r="B40" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" s="9">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>#VALUE!</v>
+        <v>179214</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="B41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="9">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="B42" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="9">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="2" t="e">
+      <c r="B43" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="9">
         <f>MAX(K3:K38)</f>
-        <v>#VALUE!</v>
+        <v>5852.0000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_76.xlsx
+++ b/LR3/table_1_76.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7296A635-98FF-4519-BC05-B0208867E20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28840B7D-1A00-4DDE-840C-295E737A35C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="3">
-        <v>44806</v>
+        <v>44805</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" ref="H4:H38" si="3">IF(G4&gt;F4,G4-F4,0)</f>
@@ -708,7 +708,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="3">
-        <v>44807</v>
+        <v>44805</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="3"/>
@@ -751,7 +751,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="3">
-        <v>44808</v>
+        <v>44805</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="3"/>
@@ -794,7 +794,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="3">
-        <v>44809</v>
+        <v>44805</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="3"/>
@@ -837,7 +837,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="3">
-        <v>44810</v>
+        <v>44805</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="3"/>
@@ -880,7 +880,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="3">
-        <v>44811</v>
+        <v>44805</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="3"/>
@@ -923,7 +923,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="3">
-        <v>44812</v>
+        <v>44805</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="3"/>
@@ -966,7 +966,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="3">
-        <v>44813</v>
+        <v>44805</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="3"/>
@@ -1009,11 +1009,11 @@
         <v>44813</v>
       </c>
       <c r="G12" s="3">
-        <v>44814</v>
+        <v>44805</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="7"/>
@@ -1021,11 +1021,11 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="1"/>
-        <v>5485.8</v>
+        <v>5475.8</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1052,11 +1052,11 @@
         <v>44813</v>
       </c>
       <c r="G13" s="3">
-        <v>44815</v>
+        <v>44805</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="7"/>
@@ -1064,11 +1064,11 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="1"/>
-        <v>5454.0000000000009</v>
+        <v>5434.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1095,11 +1095,11 @@
         <v>44813</v>
       </c>
       <c r="G14" s="3">
-        <v>44816</v>
+        <v>44805</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="7"/>
@@ -1107,11 +1107,11 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="1"/>
-        <v>5422.2000000000007</v>
+        <v>5392.2000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1138,11 +1138,11 @@
         <v>44813</v>
       </c>
       <c r="G15" s="3">
-        <v>44817</v>
+        <v>44805</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="7"/>
@@ -1150,11 +1150,11 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="1"/>
-        <v>5390.4000000000005</v>
+        <v>5350.4000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1181,11 +1181,11 @@
         <v>44813</v>
       </c>
       <c r="G16" s="3">
-        <v>44818</v>
+        <v>44805</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="7"/>
@@ -1193,11 +1193,11 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="1"/>
-        <v>5358.6</v>
+        <v>5308.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1224,11 +1224,11 @@
         <v>44813</v>
       </c>
       <c r="G17" s="3">
-        <v>44819</v>
+        <v>44805</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="7"/>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="1"/>
-        <v>5326.8</v>
+        <v>5266.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1267,11 +1267,11 @@
         <v>44813</v>
       </c>
       <c r="G18" s="3">
-        <v>44820</v>
+        <v>44805</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="7"/>
@@ -1279,11 +1279,11 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="1"/>
-        <v>5295.0000000000009</v>
+        <v>5225.0000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1310,11 +1310,11 @@
         <v>44813</v>
       </c>
       <c r="G19" s="3">
-        <v>44821</v>
+        <v>44805</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="7"/>
@@ -1322,11 +1322,11 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="1"/>
-        <v>5263.2000000000007</v>
+        <v>5183.2000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1353,11 +1353,11 @@
         <v>44813</v>
       </c>
       <c r="G20" s="3">
-        <v>44822</v>
+        <v>44805</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="7"/>
@@ -1365,11 +1365,11 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="1"/>
-        <v>5231.4000000000005</v>
+        <v>5141.4000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1396,11 +1396,11 @@
         <v>44813</v>
       </c>
       <c r="G21" s="3">
-        <v>44823</v>
+        <v>44805</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="7"/>
@@ -1408,11 +1408,11 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="1"/>
-        <v>5199.6000000000004</v>
+        <v>5099.6000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1439,11 +1439,11 @@
         <v>44813</v>
       </c>
       <c r="G22" s="3">
-        <v>44824</v>
+        <v>44805</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="7"/>
@@ -1451,11 +1451,11 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="1"/>
-        <v>5167.8</v>
+        <v>5057.8</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1482,11 +1482,11 @@
         <v>44813</v>
       </c>
       <c r="G23" s="3">
-        <v>44825</v>
+        <v>44805</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="7"/>
@@ -1494,11 +1494,11 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="1"/>
-        <v>5136.0000000000009</v>
+        <v>5016.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1525,11 +1525,11 @@
         <v>44813</v>
       </c>
       <c r="G24" s="3">
-        <v>44826</v>
+        <v>44805</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="7"/>
@@ -1537,11 +1537,11 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="1"/>
-        <v>5104.2000000000007</v>
+        <v>4974.2000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1568,11 +1568,11 @@
         <v>44813</v>
       </c>
       <c r="G25" s="3">
-        <v>44827</v>
+        <v>44805</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="7"/>
@@ -1580,11 +1580,11 @@
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="1"/>
-        <v>5072.4000000000005</v>
+        <v>4932.4000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1611,11 +1611,11 @@
         <v>44813</v>
       </c>
       <c r="G26" s="3">
-        <v>44828</v>
+        <v>44805</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="7"/>
@@ -1623,11 +1623,11 @@
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="1"/>
-        <v>5040.6000000000004</v>
+        <v>4890.6000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1654,11 +1654,11 @@
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <v>44829</v>
+        <v>44805</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="3"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="7"/>
@@ -1666,11 +1666,11 @@
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="1"/>
-        <v>5008.8</v>
+        <v>4848.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1697,11 +1697,11 @@
         <v>44813</v>
       </c>
       <c r="G28" s="3">
-        <v>44830</v>
+        <v>44805</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="7"/>
@@ -1709,11 +1709,11 @@
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="1"/>
-        <v>4977.0000000000009</v>
+        <v>4807.0000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1740,11 +1740,11 @@
         <v>44813</v>
       </c>
       <c r="G29" s="3">
-        <v>44831</v>
+        <v>44805</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="7"/>
@@ -1752,11 +1752,11 @@
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="1"/>
-        <v>4945.2000000000007</v>
+        <v>4765.2000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1783,11 +1783,11 @@
         <v>44813</v>
       </c>
       <c r="G30" s="3">
-        <v>44832</v>
+        <v>44805</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="7"/>
@@ -1795,11 +1795,11 @@
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="1"/>
-        <v>4913.4000000000005</v>
+        <v>4723.4000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1826,11 +1826,11 @@
         <v>44813</v>
       </c>
       <c r="G31" s="3">
-        <v>44833</v>
+        <v>44805</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="3"/>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="7"/>
@@ -1838,11 +1838,11 @@
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>4881.6000000000004</v>
+        <v>4681.6000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1869,11 +1869,11 @@
         <v>44813</v>
       </c>
       <c r="G32" s="3">
-        <v>44834</v>
+        <v>44805</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="7"/>
@@ -1881,11 +1881,11 @@
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="1"/>
-        <v>4849.8</v>
+        <v>4639.8</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1912,11 +1912,11 @@
         <v>44813</v>
       </c>
       <c r="G33" s="3">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="7"/>
@@ -1924,11 +1924,11 @@
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="1"/>
-        <v>4818.0000000000009</v>
+        <v>4598.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1955,11 +1955,11 @@
         <v>44813</v>
       </c>
       <c r="G34" s="3">
-        <v>44836</v>
+        <v>44805</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="7"/>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="1"/>
-        <v>4786.2000000000007</v>
+        <v>4556.2000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1998,11 +1998,11 @@
         <v>44813</v>
       </c>
       <c r="G35" s="3">
-        <v>44837</v>
+        <v>44805</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="7"/>
@@ -2010,11 +2010,11 @@
       </c>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="1"/>
-        <v>2497.2000000000003</v>
+        <v>2257.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2041,11 +2041,11 @@
         <v>44813</v>
       </c>
       <c r="G36" s="3">
-        <v>44838</v>
+        <v>44805</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="7"/>
@@ -2053,11 +2053,11 @@
       </c>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="1"/>
-        <v>2486.3000000000002</v>
+        <v>2236.3000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2084,11 +2084,11 @@
         <v>44813</v>
       </c>
       <c r="G37" s="3">
-        <v>44839</v>
+        <v>44805</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="7"/>
@@ -2096,11 +2096,11 @@
       </c>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="1"/>
-        <v>2475.4</v>
+        <v>2215.4</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2127,11 +2127,11 @@
         <v>44813</v>
       </c>
       <c r="G38" s="3">
-        <v>44840</v>
+        <v>44805</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="7"/>
@@ -2139,11 +2139,11 @@
       </c>
       <c r="J38" s="1">
         <f t="shared" si="0"/>
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="1"/>
-        <v>2464.5</v>
+        <v>2194.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="C40" s="9">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>179214</v>
+        <v>175434</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C42" s="9">
         <f>MAX(H3:H38)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">

--- a/LR3/table_1_76.xlsx
+++ b/LR3/table_1_76.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28840B7D-1A00-4DDE-840C-295E737A35C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6E5688-966D-4E55-9E77-F8A76198C16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,7 +665,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="3">
-        <v>44805</v>
+        <v>44806</v>
       </c>
       <c r="H4" s="8">
         <f t="shared" ref="H4:H38" si="3">IF(G4&gt;F4,G4-F4,0)</f>
@@ -708,7 +708,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="3">
-        <v>44805</v>
+        <v>44807</v>
       </c>
       <c r="H5" s="8">
         <f t="shared" si="3"/>
@@ -751,7 +751,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="3">
-        <v>44805</v>
+        <v>44808</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="3"/>
@@ -794,7 +794,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="3">
-        <v>44805</v>
+        <v>44809</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" si="3"/>
@@ -837,7 +837,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="3">
-        <v>44805</v>
+        <v>44810</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="3"/>
@@ -880,7 +880,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="3">
-        <v>44805</v>
+        <v>44811</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="3"/>
@@ -923,7 +923,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="3">
-        <v>44805</v>
+        <v>44812</v>
       </c>
       <c r="H10" s="8">
         <f t="shared" si="3"/>
@@ -966,7 +966,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="3">
-        <v>44805</v>
+        <v>44813</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="3"/>
@@ -1009,11 +1009,11 @@
         <v>44813</v>
       </c>
       <c r="G12" s="3">
-        <v>44805</v>
+        <v>44814</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="7"/>
@@ -1021,11 +1021,11 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="1"/>
-        <v>5475.8</v>
+        <v>5485.8</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1052,11 +1052,11 @@
         <v>44813</v>
       </c>
       <c r="G13" s="3">
-        <v>44805</v>
+        <v>44815</v>
       </c>
       <c r="H13" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="7"/>
@@ -1064,11 +1064,11 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="1"/>
-        <v>5434.0000000000009</v>
+        <v>5454.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1095,11 +1095,11 @@
         <v>44813</v>
       </c>
       <c r="G14" s="3">
-        <v>44805</v>
+        <v>44816</v>
       </c>
       <c r="H14" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="7"/>
@@ -1107,11 +1107,11 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="1"/>
-        <v>5392.2000000000007</v>
+        <v>5422.2000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1138,11 +1138,11 @@
         <v>44813</v>
       </c>
       <c r="G15" s="3">
-        <v>44805</v>
+        <v>44817</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="7"/>
@@ -1150,11 +1150,11 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="1"/>
-        <v>5350.4000000000005</v>
+        <v>5390.4000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1181,11 +1181,11 @@
         <v>44813</v>
       </c>
       <c r="G16" s="3">
-        <v>44805</v>
+        <v>44818</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="7"/>
@@ -1193,11 +1193,11 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="1"/>
-        <v>5308.6</v>
+        <v>5358.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1224,11 +1224,11 @@
         <v>44813</v>
       </c>
       <c r="G17" s="3">
-        <v>44805</v>
+        <v>44819</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="7"/>
@@ -1236,11 +1236,11 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="1"/>
-        <v>5266.8</v>
+        <v>5326.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1267,11 +1267,11 @@
         <v>44813</v>
       </c>
       <c r="G18" s="3">
-        <v>44805</v>
+        <v>44820</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" si="7"/>
@@ -1279,11 +1279,11 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="1"/>
-        <v>5225.0000000000009</v>
+        <v>5295.0000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1310,11 +1310,11 @@
         <v>44813</v>
       </c>
       <c r="G19" s="3">
-        <v>44805</v>
+        <v>44821</v>
       </c>
       <c r="H19" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="7"/>
@@ -1322,11 +1322,11 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="1"/>
-        <v>5183.2000000000007</v>
+        <v>5263.2000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1353,11 +1353,11 @@
         <v>44813</v>
       </c>
       <c r="G20" s="3">
-        <v>44805</v>
+        <v>44822</v>
       </c>
       <c r="H20" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="7"/>
@@ -1365,11 +1365,11 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="1"/>
-        <v>5141.4000000000005</v>
+        <v>5231.4000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1396,11 +1396,11 @@
         <v>44813</v>
       </c>
       <c r="G21" s="3">
-        <v>44805</v>
+        <v>44823</v>
       </c>
       <c r="H21" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="7"/>
@@ -1408,11 +1408,11 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="1"/>
-        <v>5099.6000000000004</v>
+        <v>5199.6000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1439,11 +1439,11 @@
         <v>44813</v>
       </c>
       <c r="G22" s="3">
-        <v>44805</v>
+        <v>44824</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="7"/>
@@ -1451,11 +1451,11 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="1"/>
-        <v>5057.8</v>
+        <v>5167.8</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1482,11 +1482,11 @@
         <v>44813</v>
       </c>
       <c r="G23" s="3">
-        <v>44805</v>
+        <v>44825</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="7"/>
@@ -1494,11 +1494,11 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="1"/>
-        <v>5016.0000000000009</v>
+        <v>5136.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1525,11 +1525,11 @@
         <v>44813</v>
       </c>
       <c r="G24" s="3">
-        <v>44805</v>
+        <v>44826</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="7"/>
@@ -1537,11 +1537,11 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="1"/>
-        <v>4974.2000000000007</v>
+        <v>5104.2000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1568,11 +1568,11 @@
         <v>44813</v>
       </c>
       <c r="G25" s="3">
-        <v>44805</v>
+        <v>44827</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="7"/>
@@ -1580,11 +1580,11 @@
       </c>
       <c r="J25" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="1"/>
-        <v>4932.4000000000005</v>
+        <v>5072.4000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1611,11 +1611,11 @@
         <v>44813</v>
       </c>
       <c r="G26" s="3">
-        <v>44805</v>
+        <v>44828</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="7"/>
@@ -1623,11 +1623,11 @@
       </c>
       <c r="J26" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="1"/>
-        <v>4890.6000000000004</v>
+        <v>5040.6000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1654,11 +1654,11 @@
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <v>44805</v>
+        <v>44829</v>
       </c>
       <c r="H27" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="7"/>
@@ -1666,11 +1666,11 @@
       </c>
       <c r="J27" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="1"/>
-        <v>4848.8</v>
+        <v>5008.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1697,11 +1697,11 @@
         <v>44813</v>
       </c>
       <c r="G28" s="3">
-        <v>44805</v>
+        <v>44830</v>
       </c>
       <c r="H28" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="7"/>
@@ -1709,11 +1709,11 @@
       </c>
       <c r="J28" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="1"/>
-        <v>4807.0000000000009</v>
+        <v>4977.0000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1740,11 +1740,11 @@
         <v>44813</v>
       </c>
       <c r="G29" s="3">
-        <v>44805</v>
+        <v>44831</v>
       </c>
       <c r="H29" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="7"/>
@@ -1752,11 +1752,11 @@
       </c>
       <c r="J29" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="1"/>
-        <v>4765.2000000000007</v>
+        <v>4945.2000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1783,11 +1783,11 @@
         <v>44813</v>
       </c>
       <c r="G30" s="3">
-        <v>44805</v>
+        <v>44832</v>
       </c>
       <c r="H30" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="7"/>
@@ -1795,11 +1795,11 @@
       </c>
       <c r="J30" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="1"/>
-        <v>4723.4000000000005</v>
+        <v>4913.4000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1826,11 +1826,11 @@
         <v>44813</v>
       </c>
       <c r="G31" s="3">
-        <v>44805</v>
+        <v>44833</v>
       </c>
       <c r="H31" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="7"/>
@@ -1838,11 +1838,11 @@
       </c>
       <c r="J31" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="1"/>
-        <v>4681.6000000000004</v>
+        <v>4881.6000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1869,11 +1869,11 @@
         <v>44813</v>
       </c>
       <c r="G32" s="3">
-        <v>44805</v>
+        <v>44834</v>
       </c>
       <c r="H32" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="7"/>
@@ -1881,11 +1881,11 @@
       </c>
       <c r="J32" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="1"/>
-        <v>4639.8</v>
+        <v>4849.8</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1912,11 +1912,11 @@
         <v>44813</v>
       </c>
       <c r="G33" s="3">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="H33" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="7"/>
@@ -1924,11 +1924,11 @@
       </c>
       <c r="J33" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="K33" s="1">
         <f t="shared" si="1"/>
-        <v>4598.0000000000009</v>
+        <v>4818.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1955,11 +1955,11 @@
         <v>44813</v>
       </c>
       <c r="G34" s="3">
-        <v>44805</v>
+        <v>44836</v>
       </c>
       <c r="H34" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="7"/>
@@ -1967,11 +1967,11 @@
       </c>
       <c r="J34" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="1"/>
-        <v>4556.2000000000007</v>
+        <v>4786.2000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -1998,11 +1998,11 @@
         <v>44813</v>
       </c>
       <c r="G35" s="3">
-        <v>44805</v>
+        <v>44837</v>
       </c>
       <c r="H35" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="7"/>
@@ -2010,11 +2010,11 @@
       </c>
       <c r="J35" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="K35" s="1">
         <f t="shared" si="1"/>
-        <v>2257.2000000000003</v>
+        <v>2497.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2041,11 +2041,11 @@
         <v>44813</v>
       </c>
       <c r="G36" s="3">
-        <v>44805</v>
+        <v>44838</v>
       </c>
       <c r="H36" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="7"/>
@@ -2053,11 +2053,11 @@
       </c>
       <c r="J36" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="K36" s="1">
         <f t="shared" si="1"/>
-        <v>2236.3000000000002</v>
+        <v>2486.3000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2084,11 +2084,11 @@
         <v>44813</v>
       </c>
       <c r="G37" s="3">
-        <v>44805</v>
+        <v>44839</v>
       </c>
       <c r="H37" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="7"/>
@@ -2096,11 +2096,11 @@
       </c>
       <c r="J37" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="K37" s="1">
         <f t="shared" si="1"/>
-        <v>2215.4</v>
+        <v>2475.4</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2127,11 +2127,11 @@
         <v>44813</v>
       </c>
       <c r="G38" s="3">
-        <v>44805</v>
+        <v>44840</v>
       </c>
       <c r="H38" s="8">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="7"/>
@@ -2139,11 +2139,11 @@
       </c>
       <c r="J38" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="K38" s="1">
         <f t="shared" si="1"/>
-        <v>2194.5</v>
+        <v>2464.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="C40" s="9">
         <f>FLOOR(SUM(K3:K38),1)</f>
-        <v>175434</v>
+        <v>179214</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="C42" s="9">
         <f>MAX(H3:H38)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">

--- a/LR3/table_1_76.xlsx
+++ b/LR3/table_1_76.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6E5688-966D-4E55-9E77-F8A76198C16B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD9EAD1-B96B-4E27-861A-34C51B2BC651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,6 +665,7 @@
         <v>44813</v>
       </c>
       <c r="G4" s="3">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="8">
@@ -708,6 +709,7 @@
         <v>44813</v>
       </c>
       <c r="G5" s="3">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="8">
@@ -715,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="7">$I$3</f>
+        <f t="shared" ref="I5:I38" si="8">$I$3</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -751,6 +753,7 @@
         <v>44813</v>
       </c>
       <c r="G6" s="3">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="8">
@@ -758,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -794,6 +797,7 @@
         <v>44813</v>
       </c>
       <c r="G7" s="3">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="8">
@@ -801,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -837,6 +841,7 @@
         <v>44813</v>
       </c>
       <c r="G8" s="3">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="8">
@@ -844,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -880,6 +885,7 @@
         <v>44813</v>
       </c>
       <c r="G9" s="3">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="8">
@@ -887,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -923,6 +929,7 @@
         <v>44813</v>
       </c>
       <c r="G10" s="3">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="8">
@@ -930,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -966,6 +973,7 @@
         <v>44813</v>
       </c>
       <c r="G11" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="8">
@@ -973,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -1009,6 +1017,7 @@
         <v>44813</v>
       </c>
       <c r="G12" s="3">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="8">
@@ -1016,7 +1025,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1052,6 +1061,7 @@
         <v>44813</v>
       </c>
       <c r="G13" s="3">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="8">
@@ -1059,7 +1069,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1095,6 +1105,7 @@
         <v>44813</v>
       </c>
       <c r="G14" s="3">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="8">
@@ -1102,7 +1113,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1138,6 +1149,7 @@
         <v>44813</v>
       </c>
       <c r="G15" s="3">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="8">
@@ -1145,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1181,6 +1193,7 @@
         <v>44813</v>
       </c>
       <c r="G16" s="3">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="8">
@@ -1188,7 +1201,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1224,6 +1237,7 @@
         <v>44813</v>
       </c>
       <c r="G17" s="3">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="8">
@@ -1231,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1267,6 +1281,7 @@
         <v>44813</v>
       </c>
       <c r="G18" s="3">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="8">
@@ -1274,7 +1289,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1310,6 +1325,7 @@
         <v>44813</v>
       </c>
       <c r="G19" s="3">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="8">
@@ -1317,7 +1333,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1353,6 +1369,7 @@
         <v>44813</v>
       </c>
       <c r="G20" s="3">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="8">
@@ -1360,7 +1377,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1396,6 +1413,7 @@
         <v>44813</v>
       </c>
       <c r="G21" s="3">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="8">
@@ -1403,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1439,6 +1457,7 @@
         <v>44813</v>
       </c>
       <c r="G22" s="3">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="8">
@@ -1446,7 +1465,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1482,6 +1501,7 @@
         <v>44813</v>
       </c>
       <c r="G23" s="3">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="8">
@@ -1489,7 +1509,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1525,6 +1545,7 @@
         <v>44813</v>
       </c>
       <c r="G24" s="3">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="8">
@@ -1532,7 +1553,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1568,6 +1589,7 @@
         <v>44813</v>
       </c>
       <c r="G25" s="3">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="8">
@@ -1575,7 +1597,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1611,6 +1633,7 @@
         <v>44813</v>
       </c>
       <c r="G26" s="3">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="8">
@@ -1618,7 +1641,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1654,6 +1677,7 @@
         <v>44813</v>
       </c>
       <c r="G27" s="3">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="8">
@@ -1661,7 +1685,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1697,6 +1721,7 @@
         <v>44813</v>
       </c>
       <c r="G28" s="3">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="8">
@@ -1704,7 +1729,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1740,6 +1765,7 @@
         <v>44813</v>
       </c>
       <c r="G29" s="3">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="8">
@@ -1747,7 +1773,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1783,6 +1809,7 @@
         <v>44813</v>
       </c>
       <c r="G30" s="3">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="8">
@@ -1790,7 +1817,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1826,6 +1853,7 @@
         <v>44813</v>
       </c>
       <c r="G31" s="3">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="8">
@@ -1833,7 +1861,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1869,6 +1897,7 @@
         <v>44813</v>
       </c>
       <c r="G32" s="3">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="8">
@@ -1876,7 +1905,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1912,6 +1941,7 @@
         <v>44813</v>
       </c>
       <c r="G33" s="3">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="8">
@@ -1919,7 +1949,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1955,6 +1985,7 @@
         <v>44813</v>
       </c>
       <c r="G34" s="3">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="8">
@@ -1962,7 +1993,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1998,6 +2029,7 @@
         <v>44813</v>
       </c>
       <c r="G35" s="3">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="8">
@@ -2005,7 +2037,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2041,6 +2073,7 @@
         <v>44813</v>
       </c>
       <c r="G36" s="3">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="8">
@@ -2048,7 +2081,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2084,6 +2117,7 @@
         <v>44813</v>
       </c>
       <c r="G37" s="3">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="8">
@@ -2091,7 +2125,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2127,6 +2161,7 @@
         <v>44813</v>
       </c>
       <c r="G38" s="3">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="8">
@@ -2134,7 +2169,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_76.xlsx
+++ b/LR3/table_1_76.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD9EAD1-B96B-4E27-861A-34C51B2BC651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F251BD9-D342-4236-8997-349A115994E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +204,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -233,23 +226,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -532,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +561,7 @@
       <c r="B2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>34</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -582,40 +570,40 @@
       <c r="E2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="5">
         <v>70</v>
       </c>
-      <c r="D3" s="1">
-        <f>$A$1*1.1</f>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="D3" s="5">
+        <f>A1*1.1</f>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E3" s="5">
         <f>C3*D3</f>
         <v>5852.0000000000009</v>
       </c>
@@ -625,1594 +613,1629 @@
       <c r="G3" s="3">
         <v>44805</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>10</v>
-      </c>
-      <c r="J3" s="9">
-        <f t="shared" ref="J3:J38" si="0">H3*I3</f>
+      <c r="I3" s="5">
+        <v>10</v>
+      </c>
+      <c r="J3" s="5">
+        <f>H3*I3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="9">
-        <f t="shared" ref="K3:K38" si="1">E3+J3</f>
+      <c r="K3" s="5">
+        <f>E3+J3</f>
         <v>5852.0000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <f>D3</f>
         <v>83.600000000000009</v>
       </c>
-      <c r="E4" s="9">
-        <f t="shared" ref="E4:E38" si="2">C4*D4</f>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>5810.2000000000007</v>
       </c>
       <c r="F4" s="3">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="8">
-        <f t="shared" ref="H4:H38" si="3">IF(G4&gt;F4,G4-F4,0)</f>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="1">
-        <f>$I$3</f>
-        <v>10</v>
-      </c>
-      <c r="J4" s="1">
-        <f t="shared" si="0"/>
+      <c r="I4" s="5">
+        <f>I3</f>
+        <v>10</v>
+      </c>
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="1">
-        <f t="shared" si="1"/>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>5810.2000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+      <c r="A5" s="4">
+        <f t="shared" ref="A5:A37" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>83.600000000000009</v>
       </c>
-      <c r="E5" s="9">
-        <f t="shared" si="2"/>
+      <c r="E5" s="5">
+        <f t="shared" si="0"/>
         <v>5768.4000000000005</v>
       </c>
       <c r="F5" s="3">
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="8">
-        <f t="shared" si="3"/>
+      <c r="H5" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">$I$3</f>
-        <v>10</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="0"/>
+      <c r="I5" s="5">
+        <f t="shared" ref="I5:I38" si="9">I4</f>
+        <v>10</v>
+      </c>
+      <c r="J5" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="1">
-        <f t="shared" si="1"/>
+      <c r="K5" s="5">
+        <f t="shared" si="3"/>
         <v>5768.4000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E6" s="9">
-        <f t="shared" si="2"/>
+      <c r="D6" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="0"/>
         <v>5726.6</v>
       </c>
       <c r="F6" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="8">
-        <f t="shared" si="3"/>
+      <c r="H6" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="1">
-        <f t="shared" si="0"/>
+      <c r="I6" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="1">
-        <f t="shared" si="1"/>
+      <c r="K6" s="5">
+        <f t="shared" si="3"/>
         <v>5726.6</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E7" s="9">
-        <f t="shared" si="2"/>
+      <c r="D7" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="0"/>
         <v>5684.8</v>
       </c>
       <c r="F7" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="8">
-        <f t="shared" si="3"/>
+      <c r="H7" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="0"/>
+      <c r="I7" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="1">
-        <f t="shared" si="1"/>
+      <c r="K7" s="5">
+        <f t="shared" si="3"/>
         <v>5684.8</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E8" s="9">
-        <f t="shared" si="2"/>
+      <c r="D8" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="0"/>
         <v>5643.0000000000009</v>
       </c>
       <c r="F8" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="8">
-        <f t="shared" si="3"/>
+      <c r="H8" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="1">
-        <f t="shared" si="0"/>
+      <c r="I8" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="1">
-        <f t="shared" si="1"/>
+      <c r="K8" s="5">
+        <f t="shared" si="3"/>
         <v>5643.0000000000009</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E9" s="9">
-        <f t="shared" si="2"/>
+      <c r="D9" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="0"/>
         <v>5601.2000000000007</v>
       </c>
       <c r="F9" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="8">
-        <f t="shared" si="3"/>
+      <c r="H9" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="0"/>
+      <c r="I9" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="1">
-        <f t="shared" si="1"/>
+      <c r="K9" s="5">
+        <f t="shared" si="3"/>
         <v>5601.2000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E10" s="9">
-        <f t="shared" si="2"/>
+      <c r="D10" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="0"/>
         <v>5559.4000000000005</v>
       </c>
       <c r="F10" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="8">
-        <f t="shared" si="3"/>
+      <c r="H10" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="0"/>
+      <c r="I10" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="1">
-        <f t="shared" si="1"/>
+      <c r="K10" s="5">
+        <f t="shared" si="3"/>
         <v>5559.4000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" si="2"/>
+      <c r="D11" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="0"/>
         <v>5517.6</v>
       </c>
       <c r="F11" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="1">
-        <f t="shared" si="0"/>
+      <c r="I11" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <f t="shared" si="1"/>
+      <c r="K11" s="5">
+        <f t="shared" si="3"/>
         <v>5517.6</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="4">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E12" s="9">
-        <f t="shared" si="2"/>
+      <c r="D12" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="0"/>
         <v>5475.8</v>
       </c>
       <c r="F12" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="8">
-        <f t="shared" si="3"/>
+      <c r="H12" s="5">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="1"/>
+      <c r="I12" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="3"/>
         <v>5485.8</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E13" s="9">
-        <f t="shared" si="2"/>
+      <c r="D13" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="0"/>
         <v>5434.0000000000009</v>
       </c>
       <c r="F13" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="8">
-        <f t="shared" si="3"/>
+      <c r="H13" s="5">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="0"/>
+      <c r="I13" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="1">
-        <f t="shared" si="1"/>
+      <c r="K13" s="5">
+        <f t="shared" si="3"/>
         <v>5454.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="5">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E14" s="9">
-        <f t="shared" si="2"/>
+      <c r="D14" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="0"/>
         <v>5392.2000000000007</v>
       </c>
       <c r="F14" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="8">
-        <f t="shared" si="3"/>
+      <c r="H14" s="5">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="1">
-        <f t="shared" si="0"/>
+      <c r="I14" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="1">
-        <f t="shared" si="1"/>
+      <c r="K14" s="5">
+        <f t="shared" si="3"/>
         <v>5422.2000000000007</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E15" s="9">
-        <f t="shared" si="2"/>
+      <c r="D15" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="0"/>
         <v>5350.4000000000005</v>
       </c>
       <c r="F15" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="8">
-        <f t="shared" si="3"/>
+      <c r="H15" s="5">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="0"/>
+      <c r="I15" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="1">
-        <f t="shared" si="1"/>
+      <c r="K15" s="5">
+        <f t="shared" si="3"/>
         <v>5390.4000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E16" s="9">
-        <f t="shared" si="2"/>
+      <c r="D16" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="0"/>
         <v>5308.6</v>
       </c>
       <c r="F16" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="8">
-        <f t="shared" si="3"/>
+      <c r="H16" s="5">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="0"/>
+      <c r="I16" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="1">
-        <f t="shared" si="1"/>
+      <c r="K16" s="5">
+        <f t="shared" si="3"/>
         <v>5358.6</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E17" s="9">
-        <f t="shared" si="2"/>
+      <c r="D17" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="0"/>
         <v>5266.8</v>
       </c>
       <c r="F17" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="8">
-        <f t="shared" si="3"/>
+      <c r="H17" s="5">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="1">
-        <f t="shared" si="0"/>
+      <c r="I17" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="1">
-        <f t="shared" si="1"/>
+      <c r="K17" s="5">
+        <f t="shared" si="3"/>
         <v>5326.8</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E18" s="9">
-        <f t="shared" si="2"/>
+      <c r="D18" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="0"/>
         <v>5225.0000000000009</v>
       </c>
       <c r="F18" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="8">
-        <f t="shared" si="3"/>
+      <c r="H18" s="5">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="1">
-        <f t="shared" si="0"/>
+      <c r="I18" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="1">
-        <f t="shared" si="1"/>
+      <c r="K18" s="5">
+        <f t="shared" si="3"/>
         <v>5295.0000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E19" s="9">
-        <f t="shared" si="2"/>
+      <c r="D19" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
         <v>5183.2000000000007</v>
       </c>
       <c r="F19" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="8">
-        <f t="shared" si="3"/>
+      <c r="H19" s="5">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="1">
-        <f t="shared" si="0"/>
+      <c r="I19" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="1">
-        <f t="shared" si="1"/>
+      <c r="K19" s="5">
+        <f t="shared" si="3"/>
         <v>5263.2000000000007</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E20" s="9">
-        <f t="shared" si="2"/>
+      <c r="D20" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="0"/>
         <v>5141.4000000000005</v>
       </c>
       <c r="F20" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="8">
-        <f t="shared" si="3"/>
+      <c r="H20" s="5">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="0"/>
+      <c r="I20" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="1">
-        <f t="shared" si="1"/>
+      <c r="K20" s="5">
+        <f t="shared" si="3"/>
         <v>5231.4000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E21" s="9">
-        <f t="shared" si="2"/>
+      <c r="D21" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="0"/>
         <v>5099.6000000000004</v>
       </c>
       <c r="F21" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="8">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="1">
-        <f t="shared" si="0"/>
+      <c r="H21" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="1">
-        <f t="shared" si="1"/>
+      <c r="K21" s="5">
+        <f t="shared" si="3"/>
         <v>5199.6000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E22" s="9">
-        <f t="shared" si="2"/>
+      <c r="D22" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="0"/>
         <v>5057.8</v>
       </c>
       <c r="F22" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="8">
-        <f t="shared" si="3"/>
+      <c r="H22" s="5">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="1">
-        <f t="shared" si="0"/>
+      <c r="I22" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="1">
-        <f t="shared" si="1"/>
+      <c r="K22" s="5">
+        <f t="shared" si="3"/>
         <v>5167.8</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E23" s="9">
-        <f t="shared" si="2"/>
+      <c r="D23" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="0"/>
         <v>5016.0000000000009</v>
       </c>
       <c r="F23" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="8">
-        <f t="shared" si="3"/>
+      <c r="H23" s="5">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="1">
-        <f t="shared" si="0"/>
+      <c r="I23" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="1">
-        <f t="shared" si="1"/>
+      <c r="K23" s="5">
+        <f t="shared" si="3"/>
         <v>5136.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E24" s="9">
-        <f t="shared" si="2"/>
+      <c r="D24" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="0"/>
         <v>4974.2000000000007</v>
       </c>
       <c r="F24" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="8">
-        <f t="shared" si="3"/>
+      <c r="H24" s="5">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="0"/>
+      <c r="I24" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="1">
-        <f t="shared" si="1"/>
+      <c r="K24" s="5">
+        <f t="shared" si="3"/>
         <v>5104.2000000000007</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E25" s="9">
-        <f t="shared" si="2"/>
+      <c r="D25" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="0"/>
         <v>4932.4000000000005</v>
       </c>
       <c r="F25" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="8">
-        <f t="shared" si="3"/>
+      <c r="H25" s="5">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="1">
-        <f t="shared" si="0"/>
+      <c r="I25" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="1">
-        <f t="shared" si="1"/>
+      <c r="K25" s="5">
+        <f t="shared" si="3"/>
         <v>5072.4000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E26" s="9">
-        <f t="shared" si="2"/>
+      <c r="D26" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="0"/>
         <v>4890.6000000000004</v>
       </c>
       <c r="F26" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="8">
-        <f t="shared" si="3"/>
+      <c r="H26" s="5">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="1">
-        <f t="shared" si="0"/>
+      <c r="I26" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="1">
-        <f t="shared" si="1"/>
+      <c r="K26" s="5">
+        <f t="shared" si="3"/>
         <v>5040.6000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="5">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E27" s="9">
-        <f t="shared" si="2"/>
+      <c r="D27" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="0"/>
         <v>4848.8</v>
       </c>
       <c r="F27" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="8">
-        <f t="shared" si="3"/>
+      <c r="H27" s="5">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="0"/>
+      <c r="I27" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="1">
-        <f t="shared" si="1"/>
+      <c r="K27" s="5">
+        <f t="shared" si="3"/>
         <v>5008.8</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="4">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E28" s="9">
-        <f t="shared" si="2"/>
+      <c r="D28" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="0"/>
         <v>4807.0000000000009</v>
       </c>
       <c r="F28" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="8">
-        <f t="shared" si="3"/>
+      <c r="H28" s="5">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="0"/>
+      <c r="I28" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="5">
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="1">
-        <f t="shared" si="1"/>
+      <c r="K28" s="5">
+        <f t="shared" si="3"/>
         <v>4977.0000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="4">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E29" s="9">
-        <f t="shared" si="2"/>
+      <c r="D29" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="0"/>
         <v>4765.2000000000007</v>
       </c>
       <c r="F29" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="8">
-        <f t="shared" si="3"/>
+      <c r="H29" s="5">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="0"/>
+      <c r="I29" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="1">
-        <f t="shared" si="1"/>
+      <c r="K29" s="5">
+        <f t="shared" si="3"/>
         <v>4945.2000000000007</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="4">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E30" s="9">
-        <f t="shared" si="2"/>
+      <c r="D30" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="0"/>
         <v>4723.4000000000005</v>
       </c>
       <c r="F30" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="8">
-        <f t="shared" si="3"/>
+      <c r="H30" s="5">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="0"/>
+      <c r="I30" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="1">
-        <f t="shared" si="1"/>
+      <c r="K30" s="5">
+        <f t="shared" si="3"/>
         <v>4913.4000000000005</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="4">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E31" s="9">
-        <f t="shared" si="2"/>
+      <c r="D31" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="0"/>
         <v>4681.6000000000004</v>
       </c>
       <c r="F31" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="8">
-        <f t="shared" si="3"/>
+      <c r="H31" s="5">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="0"/>
+      <c r="I31" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="5">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="1">
-        <f t="shared" si="1"/>
+      <c r="K31" s="5">
+        <f t="shared" si="3"/>
         <v>4881.6000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="4">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E32" s="9">
-        <f t="shared" si="2"/>
+      <c r="D32" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="0"/>
         <v>4639.8</v>
       </c>
       <c r="F32" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="8">
-        <f t="shared" si="3"/>
+      <c r="H32" s="5">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="1">
-        <f t="shared" si="0"/>
+      <c r="I32" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="5">
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="1">
-        <f t="shared" si="1"/>
+      <c r="K32" s="5">
+        <f t="shared" si="3"/>
         <v>4849.8</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="4">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E33" s="9">
-        <f t="shared" si="2"/>
+      <c r="D33" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="0"/>
         <v>4598.0000000000009</v>
       </c>
       <c r="F33" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="8">
-        <f t="shared" si="3"/>
+      <c r="H33" s="5">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" si="0"/>
+      <c r="I33" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="5">
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="1">
-        <f t="shared" si="1"/>
+      <c r="K33" s="5">
+        <f t="shared" si="3"/>
         <v>4818.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="4">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="6"/>
-        <v>83.600000000000009</v>
-      </c>
-      <c r="E34" s="9">
-        <f t="shared" si="2"/>
+      <c r="D34" s="5">
+        <f t="shared" si="6"/>
+        <v>83.600000000000009</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="0"/>
         <v>4556.2000000000007</v>
       </c>
       <c r="F34" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="8">
-        <f t="shared" si="3"/>
+      <c r="H34" s="5">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="0"/>
+      <c r="I34" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="5">
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="1">
-        <f t="shared" si="1"/>
+      <c r="K34" s="5">
+        <f t="shared" si="3"/>
         <v>4786.2000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="4">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="5">
         <f>D3/2</f>
         <v>41.800000000000004</v>
       </c>
-      <c r="E35" s="9">
-        <f t="shared" si="2"/>
+      <c r="E35" s="5">
+        <f t="shared" si="0"/>
         <v>2257.2000000000003</v>
       </c>
       <c r="F35" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="8">
-        <f t="shared" si="3"/>
+      <c r="H35" s="5">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="0"/>
+      <c r="I35" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="5">
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="1">
-        <f t="shared" si="1"/>
+      <c r="K35" s="5">
+        <f t="shared" si="3"/>
         <v>2497.2000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="5">
         <f>D3/2</f>
         <v>41.800000000000004</v>
       </c>
-      <c r="E36" s="9">
-        <f t="shared" si="2"/>
+      <c r="E36" s="5">
+        <f t="shared" si="0"/>
         <v>2236.3000000000002</v>
       </c>
       <c r="F36" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="8">
-        <f t="shared" si="3"/>
+      <c r="H36" s="5">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" si="0"/>
+      <c r="I36" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="5">
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="1">
-        <f t="shared" si="1"/>
+      <c r="K36" s="5">
+        <f t="shared" si="3"/>
         <v>2486.3000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="4">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="5">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="5">
         <f>D3/2</f>
         <v>41.800000000000004</v>
       </c>
-      <c r="E37" s="9">
-        <f t="shared" si="2"/>
+      <c r="E37" s="5">
+        <f t="shared" si="0"/>
         <v>2215.4</v>
       </c>
       <c r="F37" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="8">
-        <f t="shared" si="3"/>
+      <c r="H37" s="5">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="0"/>
+      <c r="I37" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="5">
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="1">
-        <f t="shared" si="1"/>
+      <c r="K37" s="5">
+        <f t="shared" si="3"/>
         <v>2475.4</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <f t="shared" si="4"/>
+      <c r="A38" s="4">
+        <f>A37+1</f>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="5">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="5">
         <f>D3/2</f>
         <v>41.800000000000004</v>
       </c>
-      <c r="E38" s="9">
-        <f t="shared" si="2"/>
+      <c r="E38" s="5">
+        <f t="shared" si="0"/>
         <v>2194.5</v>
       </c>
       <c r="F38" s="3">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="8">
-        <f t="shared" si="3"/>
+      <c r="H38" s="5">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
-        <f t="shared" si="0"/>
+      <c r="I38" s="5">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="5">
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="1">
-        <f t="shared" si="1"/>
+      <c r="K38" s="5">
+        <f t="shared" si="3"/>
         <v>2464.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
         <v>179214</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="5">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="5">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="5">
         <f>MAX(K3:K38)</f>
         <v>5852.0000000000009</v>
       </c>
